--- a/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2732636403539175</v>
+        <v>0.2732636403553244</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1886210447671175</v>
+        <v>0.188621044767217</v>
       </c>
       <c r="E2">
-        <v>1.127861115129036</v>
+        <v>1.127861115129022</v>
       </c>
       <c r="F2">
-        <v>2.810011999664511</v>
+        <v>2.810011999664482</v>
       </c>
       <c r="G2">
         <v>2.529116192586017</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6531687703372526</v>
+        <v>0.6531687703372455</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.92389138536507</v>
+        <v>17.9238913853649</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2378313260717988</v>
+        <v>0.2378313260720972</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.154291722869516</v>
+        <v>0.1542917228694876</v>
       </c>
       <c r="E3">
-        <v>0.9580463264108232</v>
+        <v>0.9580463264108374</v>
       </c>
       <c r="F3">
-        <v>2.229877699112023</v>
+        <v>2.229877699112038</v>
       </c>
       <c r="G3">
-        <v>2.011246166134413</v>
+        <v>2.011246166134399</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.20168436094832</v>
+        <v>15.20168436094818</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2164640539224933</v>
+        <v>0.216464053922877</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1351365275576342</v>
+        <v>0.1351365275577479</v>
       </c>
       <c r="E4">
-        <v>0.8594236478287769</v>
+        <v>0.8594236478288053</v>
       </c>
       <c r="F4">
         <v>1.921285930331408</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4883568836243626</v>
+        <v>0.4883568836243981</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.6142028490097</v>
+        <v>13.61420284900979</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.207837227496114</v>
+        <v>0.2078372274954035</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0.1276974915521976</v>
       </c>
       <c r="E5">
-        <v>0.8202983425873072</v>
+        <v>0.8202983425873356</v>
       </c>
       <c r="F5">
         <v>1.804767868975532</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4649093077891706</v>
+        <v>0.4649093077891848</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.98307134104144</v>
+        <v>12.98307134104149</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2064091772579104</v>
+        <v>0.2064091772587489</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.126481621868848</v>
+        <v>0.1264816218689617</v>
       </c>
       <c r="E6">
         <v>0.8138574115390185</v>
       </c>
       <c r="F6">
-        <v>1.785912745916292</v>
+        <v>1.785912745916278</v>
       </c>
       <c r="G6">
-        <v>1.61255684457609</v>
+        <v>1.612556844576076</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4610631011619262</v>
+        <v>0.4610631011618906</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.8790976341478</v>
+        <v>12.87909763414774</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2163474036073438</v>
+        <v>0.2163474036078128</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1350348461637623</v>
+        <v>0.1350348461638902</v>
       </c>
       <c r="E7">
-        <v>0.8588920759335679</v>
+        <v>0.8588920759336247</v>
       </c>
       <c r="F7">
-        <v>1.91968016734576</v>
+        <v>1.919680167345746</v>
       </c>
       <c r="G7">
-        <v>1.732951902140925</v>
+        <v>1.732951902140911</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4880373492001766</v>
+        <v>0.4880373492001979</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2609543925506159</v>
+        <v>0.2609543925510707</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1763023110844131</v>
+        <v>0.176302311084271</v>
       </c>
       <c r="E8">
-        <v>1.067886125301328</v>
+        <v>1.067886125301314</v>
       </c>
       <c r="F8">
-        <v>2.598156962868856</v>
+        <v>2.598156962868913</v>
       </c>
       <c r="G8">
-        <v>2.340333951752314</v>
+        <v>2.340333951752342</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.615741020721984</v>
+        <v>0.6157410207220124</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.96408204893331</v>
+        <v>16.96408204893314</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3525858415888479</v>
+        <v>0.3525858415891747</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2809315167250475</v>
+        <v>0.2809315167250332</v>
       </c>
       <c r="E9">
-        <v>1.547971128679492</v>
+        <v>1.54797112867945</v>
       </c>
       <c r="F9">
-        <v>4.504555053141729</v>
+        <v>4.504555053141758</v>
       </c>
       <c r="G9">
-        <v>4.029593938605416</v>
+        <v>4.029593938605402</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9256862371362544</v>
+        <v>0.9256862371362615</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>24.59551474213367</v>
+        <v>24.59551474213359</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4250245347683546</v>
+        <v>0.425024534768454</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3971031564266951</v>
+        <v>0.3971031564267236</v>
       </c>
       <c r="E10">
         <v>2.017226904564168</v>
       </c>
       <c r="F10">
-        <v>6.839742887248462</v>
+        <v>6.839742887248292</v>
       </c>
       <c r="G10">
-        <v>6.080618488790563</v>
+        <v>6.080618488790449</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.253870693465878</v>
+        <v>1.253870693465885</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>31.9244288711925</v>
+        <v>31.92442887119233</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4606792394364589</v>
+        <v>0.460679239436999</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4778857717141136</v>
+        <v>0.4778857717139999</v>
       </c>
       <c r="E11">
-        <v>2.312375785159034</v>
+        <v>2.312375785159063</v>
       </c>
       <c r="F11">
-        <v>8.560628328458478</v>
+        <v>8.560628328458534</v>
       </c>
       <c r="G11">
-        <v>7.584863130385145</v>
+        <v>7.584863130385202</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.475237071327989</v>
+        <v>1.475237071328003</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>36.44958146474875</v>
+        <v>36.44958146474903</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4750759066445482</v>
+        <v>0.4750759066450456</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5196950829578526</v>
+        <v>0.5196950829575542</v>
       </c>
       <c r="E12">
-        <v>2.456519527432235</v>
+        <v>2.456519527432206</v>
       </c>
       <c r="F12">
-        <v>9.476050306969825</v>
+        <v>9.476050306969967</v>
       </c>
       <c r="G12">
-        <v>8.383319493957544</v>
+        <v>8.383319493957714</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.588110122057593</v>
+        <v>1.58811012205755</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>38.63014864415572</v>
+        <v>38.63014864415555</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4719117736628391</v>
+        <v>0.4719117736632228</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5098323732763532</v>
+        <v>0.5098323732764811</v>
       </c>
       <c r="E13">
-        <v>2.423012331532092</v>
+        <v>2.423012331532121</v>
       </c>
       <c r="F13">
-        <v>9.258735040579836</v>
+        <v>9.258735040579808</v>
       </c>
       <c r="G13">
-        <v>8.193863384745214</v>
+        <v>8.193863384745157</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.561576073745009</v>
+        <v>1.561576073745051</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>38.12517080788143</v>
+        <v>38.125170807882</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4618383795434227</v>
+        <v>0.4618383795435079</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4809903632964136</v>
+        <v>0.4809903632964279</v>
       </c>
       <c r="E14">
-        <v>2.323271510813797</v>
+        <v>2.323271510813839</v>
       </c>
       <c r="F14">
-        <v>8.628067555737289</v>
+        <v>8.628067555737374</v>
       </c>
       <c r="G14">
-        <v>7.643721669608681</v>
+        <v>7.643721669608738</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.483654893961308</v>
+        <v>1.483654893961315</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>36.6151373379019</v>
+        <v>36.61513733790196</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4558177381928772</v>
+        <v>0.4558177381927351</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4652766677935745</v>
+        <v>0.465276667793546</v>
       </c>
       <c r="E15">
-        <v>2.267796766357066</v>
+        <v>2.267796766357037</v>
       </c>
       <c r="F15">
-        <v>8.287657528099629</v>
+        <v>8.287657528099686</v>
       </c>
       <c r="G15">
-        <v>7.346560668634169</v>
+        <v>7.346560668634197</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.440985251196402</v>
+        <v>1.440985251196388</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>35.77104250444603</v>
+        <v>35.77104250444586</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4227742489194952</v>
+        <v>0.4227742489191684</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3927285100804454</v>
+        <v>0.3927285100804596</v>
       </c>
       <c r="E16">
-        <v>2.000568646627912</v>
+        <v>2.000568646627883</v>
       </c>
       <c r="F16">
-        <v>6.74857579125873</v>
+        <v>6.748575791258702</v>
       </c>
       <c r="G16">
-        <v>6.000786740193547</v>
+        <v>6.00078674019349</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.241742295452191</v>
+        <v>1.241742295452198</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>31.66687923263788</v>
+        <v>31.66687923263794</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4033579202300075</v>
+        <v>0.403357920228629</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3574955712383883</v>
+        <v>0.3574955712383741</v>
       </c>
       <c r="E17">
-        <v>1.863674629051189</v>
+        <v>1.863674629051204</v>
       </c>
       <c r="F17">
-        <v>6.022826969573941</v>
+        <v>6.022826969574083</v>
       </c>
       <c r="G17">
-        <v>5.364663964587251</v>
+        <v>5.364663964587336</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.143462446708327</v>
+        <v>1.143462446708313</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>29.54258040978482</v>
+        <v>29.54258040978499</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3924060299427907</v>
+        <v>0.3924060299424497</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.339317899305442</v>
+        <v>0.3393178993053425</v>
       </c>
       <c r="E18">
         <v>1.791070195281776</v>
@@ -1035,13 +1035,13 @@
         <v>5.654658609404692</v>
       </c>
       <c r="G18">
-        <v>5.041506015547668</v>
+        <v>5.041506015547711</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.092312497493907</v>
+        <v>1.092312497493936</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>28.4105430898822</v>
+        <v>28.41054308988248</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3887292776037725</v>
+        <v>0.3887292776039999</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.333449801296922</v>
+        <v>0.3334498012969647</v>
       </c>
       <c r="E19">
-        <v>1.767332381471746</v>
+        <v>1.767332381471761</v>
       </c>
       <c r="F19">
-        <v>5.536773796023198</v>
+        <v>5.536773796023169</v>
       </c>
       <c r="G19">
-        <v>4.93796141694817</v>
+        <v>4.937961416948141</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>28.03965884879381</v>
+        <v>28.03965884879392</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4054009813742425</v>
+        <v>0.4054009813751662</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.36101098972523</v>
+        <v>0.3610109897253153</v>
       </c>
       <c r="E20">
-        <v>1.877556997036137</v>
+        <v>1.877556997036109</v>
       </c>
       <c r="F20">
         <v>6.094535765426372</v>
       </c>
       <c r="G20">
-        <v>5.427568333488864</v>
+        <v>5.427568333488821</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.15331827178418</v>
+        <v>1.153318271784173</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>29.75861948212435</v>
+        <v>29.75861948212395</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4647627432435257</v>
+        <v>0.4647627432434263</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4890053036815232</v>
+        <v>0.4890053036816084</v>
       </c>
       <c r="E21">
-        <v>2.351255372246399</v>
+        <v>2.351255372246442</v>
       </c>
       <c r="F21">
-        <v>8.802580436079296</v>
+        <v>8.802580436079467</v>
       </c>
       <c r="G21">
-        <v>7.796002407450146</v>
+        <v>7.796002407450288</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.505358884282522</v>
+        <v>1.505358884282586</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>37.03980954139865</v>
+        <v>37.03980954139922</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4647627432435257</v>
+        <v>0.4647627432434263</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4890053036815232</v>
+        <v>0.4890053036816084</v>
       </c>
       <c r="E22">
-        <v>2.351255372246399</v>
+        <v>2.351255372246442</v>
       </c>
       <c r="F22">
-        <v>8.802580436079296</v>
+        <v>8.802580436079467</v>
       </c>
       <c r="G22">
-        <v>7.796002407450146</v>
+        <v>7.796002407450288</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.505358884282522</v>
+        <v>1.505358884282586</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>37.03980954139865</v>
+        <v>37.03980954139922</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4848535455473524</v>
+        <v>0.4848535455477361</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5533836308906217</v>
+        <v>0.5533836308905506</v>
       </c>
       <c r="E23">
-        <v>2.568755121845527</v>
+        <v>2.56875512184557</v>
       </c>
       <c r="F23">
-        <v>10.22429522437852</v>
+        <v>10.22429522437869</v>
       </c>
       <c r="G23">
-        <v>9.035244603219951</v>
+        <v>9.035244603220121</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.678346245890125</v>
+        <v>1.678346245890161</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>40.31258281743163</v>
+        <v>40.31258281743175</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4044766771148431</v>
+        <v>0.4044766771144737</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3594154634818523</v>
+        <v>0.359415463481767</v>
       </c>
       <c r="E24">
         <v>1.871262558033038</v>
       </c>
       <c r="F24">
-        <v>6.061969648996609</v>
+        <v>6.061969648996495</v>
       </c>
       <c r="G24">
-        <v>5.399002164983315</v>
+        <v>5.39900216498323</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.148846475282056</v>
+        <v>1.14884647528207</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>29.66068137242291</v>
+        <v>29.66068137242297</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3271642852797925</v>
+        <v>0.3271642852799062</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2485029244347459</v>
+        <v>0.2485029244349164</v>
       </c>
       <c r="E25">
         <v>1.40581763537277</v>
       </c>
       <c r="F25">
-        <v>3.88994965271948</v>
+        <v>3.889949652719508</v>
       </c>
       <c r="G25">
-        <v>3.486978705238599</v>
+        <v>3.486978705238627</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.831378822873404</v>
+        <v>0.8313788228733685</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>22.34851843441336</v>
+        <v>22.34851843441328</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2732636403553244</v>
+        <v>0.2732636403539175</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.188621044767217</v>
+        <v>0.1886210447671175</v>
       </c>
       <c r="E2">
-        <v>1.127861115129022</v>
+        <v>1.127861115129036</v>
       </c>
       <c r="F2">
-        <v>2.810011999664482</v>
+        <v>2.810011999664511</v>
       </c>
       <c r="G2">
         <v>2.529116192586017</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6531687703372455</v>
+        <v>0.6531687703372526</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.9238913853649</v>
+        <v>17.92389138536507</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2378313260720972</v>
+        <v>0.2378313260717988</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1542917228694876</v>
+        <v>0.154291722869516</v>
       </c>
       <c r="E3">
-        <v>0.9580463264108374</v>
+        <v>0.9580463264108232</v>
       </c>
       <c r="F3">
-        <v>2.229877699112038</v>
+        <v>2.229877699112023</v>
       </c>
       <c r="G3">
-        <v>2.011246166134399</v>
+        <v>2.011246166134413</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.20168436094818</v>
+        <v>15.20168436094832</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.216464053922877</v>
+        <v>0.2164640539224933</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1351365275577479</v>
+        <v>0.1351365275576342</v>
       </c>
       <c r="E4">
-        <v>0.8594236478288053</v>
+        <v>0.8594236478287769</v>
       </c>
       <c r="F4">
         <v>1.921285930331408</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4883568836243981</v>
+        <v>0.4883568836243626</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.61420284900979</v>
+        <v>13.6142028490097</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2078372274954035</v>
+        <v>0.207837227496114</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0.1276974915521976</v>
       </c>
       <c r="E5">
-        <v>0.8202983425873356</v>
+        <v>0.8202983425873072</v>
       </c>
       <c r="F5">
         <v>1.804767868975532</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4649093077891848</v>
+        <v>0.4649093077891706</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.98307134104149</v>
+        <v>12.98307134104144</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2064091772587489</v>
+        <v>0.2064091772579104</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1264816218689617</v>
+        <v>0.126481621868848</v>
       </c>
       <c r="E6">
         <v>0.8138574115390185</v>
       </c>
       <c r="F6">
-        <v>1.785912745916278</v>
+        <v>1.785912745916292</v>
       </c>
       <c r="G6">
-        <v>1.612556844576076</v>
+        <v>1.61255684457609</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4610631011618906</v>
+        <v>0.4610631011619262</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.87909763414774</v>
+        <v>12.8790976341478</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2163474036078128</v>
+        <v>0.2163474036073438</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1350348461638902</v>
+        <v>0.1350348461637623</v>
       </c>
       <c r="E7">
-        <v>0.8588920759336247</v>
+        <v>0.8588920759335679</v>
       </c>
       <c r="F7">
-        <v>1.919680167345746</v>
+        <v>1.91968016734576</v>
       </c>
       <c r="G7">
-        <v>1.732951902140911</v>
+        <v>1.732951902140925</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4880373492001979</v>
+        <v>0.4880373492001766</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2609543925510707</v>
+        <v>0.2609543925506159</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.176302311084271</v>
+        <v>0.1763023110844131</v>
       </c>
       <c r="E8">
-        <v>1.067886125301314</v>
+        <v>1.067886125301328</v>
       </c>
       <c r="F8">
-        <v>2.598156962868913</v>
+        <v>2.598156962868856</v>
       </c>
       <c r="G8">
-        <v>2.340333951752342</v>
+        <v>2.340333951752314</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6157410207220124</v>
+        <v>0.615741020721984</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.96408204893314</v>
+        <v>16.96408204893331</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3525858415891747</v>
+        <v>0.3525858415888479</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2809315167250332</v>
+        <v>0.2809315167250475</v>
       </c>
       <c r="E9">
-        <v>1.54797112867945</v>
+        <v>1.547971128679492</v>
       </c>
       <c r="F9">
-        <v>4.504555053141758</v>
+        <v>4.504555053141729</v>
       </c>
       <c r="G9">
-        <v>4.029593938605402</v>
+        <v>4.029593938605416</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9256862371362615</v>
+        <v>0.9256862371362544</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>24.59551474213359</v>
+        <v>24.59551474213367</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.425024534768454</v>
+        <v>0.4250245347683546</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3971031564267236</v>
+        <v>0.3971031564266951</v>
       </c>
       <c r="E10">
         <v>2.017226904564168</v>
       </c>
       <c r="F10">
-        <v>6.839742887248292</v>
+        <v>6.839742887248462</v>
       </c>
       <c r="G10">
-        <v>6.080618488790449</v>
+        <v>6.080618488790563</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.253870693465885</v>
+        <v>1.253870693465878</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>31.92442887119233</v>
+        <v>31.9244288711925</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.460679239436999</v>
+        <v>0.4606792394364589</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4778857717139999</v>
+        <v>0.4778857717141136</v>
       </c>
       <c r="E11">
-        <v>2.312375785159063</v>
+        <v>2.312375785159034</v>
       </c>
       <c r="F11">
-        <v>8.560628328458534</v>
+        <v>8.560628328458478</v>
       </c>
       <c r="G11">
-        <v>7.584863130385202</v>
+        <v>7.584863130385145</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.475237071328003</v>
+        <v>1.475237071327989</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>36.44958146474903</v>
+        <v>36.44958146474875</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4750759066450456</v>
+        <v>0.4750759066445482</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5196950829575542</v>
+        <v>0.5196950829578526</v>
       </c>
       <c r="E12">
-        <v>2.456519527432206</v>
+        <v>2.456519527432235</v>
       </c>
       <c r="F12">
-        <v>9.476050306969967</v>
+        <v>9.476050306969825</v>
       </c>
       <c r="G12">
-        <v>8.383319493957714</v>
+        <v>8.383319493957544</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.58811012205755</v>
+        <v>1.588110122057593</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>38.63014864415555</v>
+        <v>38.63014864415572</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4719117736632228</v>
+        <v>0.4719117736628391</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5098323732764811</v>
+        <v>0.5098323732763532</v>
       </c>
       <c r="E13">
-        <v>2.423012331532121</v>
+        <v>2.423012331532092</v>
       </c>
       <c r="F13">
-        <v>9.258735040579808</v>
+        <v>9.258735040579836</v>
       </c>
       <c r="G13">
-        <v>8.193863384745157</v>
+        <v>8.193863384745214</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.561576073745051</v>
+        <v>1.561576073745009</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>38.125170807882</v>
+        <v>38.12517080788143</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4618383795435079</v>
+        <v>0.4618383795434227</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4809903632964279</v>
+        <v>0.4809903632964136</v>
       </c>
       <c r="E14">
-        <v>2.323271510813839</v>
+        <v>2.323271510813797</v>
       </c>
       <c r="F14">
-        <v>8.628067555737374</v>
+        <v>8.628067555737289</v>
       </c>
       <c r="G14">
-        <v>7.643721669608738</v>
+        <v>7.643721669608681</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.483654893961315</v>
+        <v>1.483654893961308</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>36.61513733790196</v>
+        <v>36.6151373379019</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4558177381927351</v>
+        <v>0.4558177381928772</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.465276667793546</v>
+        <v>0.4652766677935745</v>
       </c>
       <c r="E15">
-        <v>2.267796766357037</v>
+        <v>2.267796766357066</v>
       </c>
       <c r="F15">
-        <v>8.287657528099686</v>
+        <v>8.287657528099629</v>
       </c>
       <c r="G15">
-        <v>7.346560668634197</v>
+        <v>7.346560668634169</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.440985251196388</v>
+        <v>1.440985251196402</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>35.77104250444586</v>
+        <v>35.77104250444603</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4227742489191684</v>
+        <v>0.4227742489194952</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3927285100804596</v>
+        <v>0.3927285100804454</v>
       </c>
       <c r="E16">
-        <v>2.000568646627883</v>
+        <v>2.000568646627912</v>
       </c>
       <c r="F16">
-        <v>6.748575791258702</v>
+        <v>6.74857579125873</v>
       </c>
       <c r="G16">
-        <v>6.00078674019349</v>
+        <v>6.000786740193547</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.241742295452198</v>
+        <v>1.241742295452191</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>31.66687923263794</v>
+        <v>31.66687923263788</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.403357920228629</v>
+        <v>0.4033579202300075</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3574955712383741</v>
+        <v>0.3574955712383883</v>
       </c>
       <c r="E17">
-        <v>1.863674629051204</v>
+        <v>1.863674629051189</v>
       </c>
       <c r="F17">
-        <v>6.022826969574083</v>
+        <v>6.022826969573941</v>
       </c>
       <c r="G17">
-        <v>5.364663964587336</v>
+        <v>5.364663964587251</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.143462446708313</v>
+        <v>1.143462446708327</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>29.54258040978499</v>
+        <v>29.54258040978482</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3924060299424497</v>
+        <v>0.3924060299427907</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3393178993053425</v>
+        <v>0.339317899305442</v>
       </c>
       <c r="E18">
         <v>1.791070195281776</v>
@@ -1035,13 +1035,13 @@
         <v>5.654658609404692</v>
       </c>
       <c r="G18">
-        <v>5.041506015547711</v>
+        <v>5.041506015547668</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.092312497493936</v>
+        <v>1.092312497493907</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>28.41054308988248</v>
+        <v>28.4105430898822</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3887292776039999</v>
+        <v>0.3887292776037725</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3334498012969647</v>
+        <v>0.333449801296922</v>
       </c>
       <c r="E19">
-        <v>1.767332381471761</v>
+        <v>1.767332381471746</v>
       </c>
       <c r="F19">
-        <v>5.536773796023169</v>
+        <v>5.536773796023198</v>
       </c>
       <c r="G19">
-        <v>4.937961416948141</v>
+        <v>4.93796141694817</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>28.03965884879392</v>
+        <v>28.03965884879381</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4054009813751662</v>
+        <v>0.4054009813742425</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3610109897253153</v>
+        <v>0.36101098972523</v>
       </c>
       <c r="E20">
-        <v>1.877556997036109</v>
+        <v>1.877556997036137</v>
       </c>
       <c r="F20">
         <v>6.094535765426372</v>
       </c>
       <c r="G20">
-        <v>5.427568333488821</v>
+        <v>5.427568333488864</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.153318271784173</v>
+        <v>1.15331827178418</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>29.75861948212395</v>
+        <v>29.75861948212435</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4647627432434263</v>
+        <v>0.4647627432435257</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4890053036816084</v>
+        <v>0.4890053036815232</v>
       </c>
       <c r="E21">
-        <v>2.351255372246442</v>
+        <v>2.351255372246399</v>
       </c>
       <c r="F21">
-        <v>8.802580436079467</v>
+        <v>8.802580436079296</v>
       </c>
       <c r="G21">
-        <v>7.796002407450288</v>
+        <v>7.796002407450146</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.505358884282586</v>
+        <v>1.505358884282522</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>37.03980954139922</v>
+        <v>37.03980954139865</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4647627432434263</v>
+        <v>0.4647627432435257</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4890053036816084</v>
+        <v>0.4890053036815232</v>
       </c>
       <c r="E22">
-        <v>2.351255372246442</v>
+        <v>2.351255372246399</v>
       </c>
       <c r="F22">
-        <v>8.802580436079467</v>
+        <v>8.802580436079296</v>
       </c>
       <c r="G22">
-        <v>7.796002407450288</v>
+        <v>7.796002407450146</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.505358884282586</v>
+        <v>1.505358884282522</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>37.03980954139922</v>
+        <v>37.03980954139865</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4848535455477361</v>
+        <v>0.4848535455473524</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5533836308905506</v>
+        <v>0.5533836308906217</v>
       </c>
       <c r="E23">
-        <v>2.56875512184557</v>
+        <v>2.568755121845527</v>
       </c>
       <c r="F23">
-        <v>10.22429522437869</v>
+        <v>10.22429522437852</v>
       </c>
       <c r="G23">
-        <v>9.035244603220121</v>
+        <v>9.035244603219951</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.678346245890161</v>
+        <v>1.678346245890125</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>40.31258281743175</v>
+        <v>40.31258281743163</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4044766771144737</v>
+        <v>0.4044766771148431</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.359415463481767</v>
+        <v>0.3594154634818523</v>
       </c>
       <c r="E24">
         <v>1.871262558033038</v>
       </c>
       <c r="F24">
-        <v>6.061969648996495</v>
+        <v>6.061969648996609</v>
       </c>
       <c r="G24">
-        <v>5.39900216498323</v>
+        <v>5.399002164983315</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.14884647528207</v>
+        <v>1.148846475282056</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>29.66068137242297</v>
+        <v>29.66068137242291</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3271642852799062</v>
+        <v>0.3271642852797925</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2485029244349164</v>
+        <v>0.2485029244347459</v>
       </c>
       <c r="E25">
         <v>1.40581763537277</v>
       </c>
       <c r="F25">
-        <v>3.889949652719508</v>
+        <v>3.88994965271948</v>
       </c>
       <c r="G25">
-        <v>3.486978705238627</v>
+        <v>3.486978705238599</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8313788228733685</v>
+        <v>0.831378822873404</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>22.34851843441328</v>
+        <v>22.34851843441336</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2732636403539175</v>
+        <v>0.2732570992319836</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1886210447671175</v>
+        <v>0.187959646214594</v>
       </c>
       <c r="E2">
-        <v>1.127861115129036</v>
+        <v>1.127542013011691</v>
       </c>
       <c r="F2">
-        <v>2.810011999664511</v>
+        <v>2.803055342087788</v>
       </c>
       <c r="G2">
-        <v>2.529116192586017</v>
+        <v>0.8794251771007993</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.645244039815708</v>
       </c>
       <c r="I2">
-        <v>0.6531687703372526</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6532484757595896</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.92389138536507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>17.92067308900391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2378313260717988</v>
+        <v>0.2378270683274621</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.154291722869516</v>
+        <v>0.1537684981987582</v>
       </c>
       <c r="E3">
-        <v>0.9580463264108232</v>
+        <v>0.9577874109468922</v>
       </c>
       <c r="F3">
-        <v>2.229877699112023</v>
+        <v>2.224546713372405</v>
       </c>
       <c r="G3">
-        <v>2.011246166134413</v>
+        <v>0.6982990031048644</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.310521514008627</v>
       </c>
       <c r="I3">
-        <v>0.5481032293193877</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5481900984805108</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.20168436094832</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>15.19960433874019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2164640539224933</v>
+        <v>0.2164608554693785</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1351365275576342</v>
+        <v>0.1346865651501616</v>
       </c>
       <c r="E4">
-        <v>0.8594236478287769</v>
+        <v>0.8591959155723288</v>
       </c>
       <c r="F4">
-        <v>1.921285930331408</v>
+        <v>1.916778360272929</v>
       </c>
       <c r="G4">
-        <v>1.734395603330924</v>
+        <v>0.6008817280661702</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.132136698942872</v>
       </c>
       <c r="I4">
-        <v>0.4883568836243626</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4884428570921742</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.6142028490097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>13.61264267757232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.207837227496114</v>
+        <v>0.2078344006070978</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1276974915521976</v>
+        <v>0.1272752712904719</v>
       </c>
       <c r="E5">
-        <v>0.8202983425873072</v>
+        <v>0.820082448489714</v>
       </c>
       <c r="F5">
-        <v>1.804767868975532</v>
+        <v>1.800564487687907</v>
       </c>
       <c r="G5">
-        <v>1.629542967092519</v>
+        <v>0.5638492515306268</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.064708757127519</v>
       </c>
       <c r="I5">
-        <v>0.4649093077891706</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4649941055140303</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.98307134104144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>12.9816922735547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2064091772579104</v>
+        <v>0.2064064090096309</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.126481621868848</v>
+        <v>0.1260638986843787</v>
       </c>
       <c r="E6">
-        <v>0.8138574115390185</v>
+        <v>0.8136434425790497</v>
       </c>
       <c r="F6">
-        <v>1.785912745916292</v>
+        <v>1.781758260645674</v>
       </c>
       <c r="G6">
-        <v>1.61255684457609</v>
+        <v>0.5578419134051273</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.053793285411587</v>
       </c>
       <c r="I6">
-        <v>0.4610631011619262</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4611476652274433</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.8790976341478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>12.87774709060361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2163474036073438</v>
+        <v>0.2163442103811377</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1350348461637623</v>
+        <v>0.1345852656023396</v>
       </c>
       <c r="E7">
-        <v>0.8588920759335679</v>
+        <v>0.8586645062838159</v>
       </c>
       <c r="F7">
-        <v>1.91968016734576</v>
+        <v>1.915176813515032</v>
       </c>
       <c r="G7">
-        <v>1.732951902140925</v>
+        <v>0.6003723918886976</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.131207751257037</v>
       </c>
       <c r="I7">
-        <v>0.4880373492001766</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4881233095925595</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.60563324398925</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>13.60407562490064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2609543925506159</v>
+        <v>0.2609487295499804</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1763023110844131</v>
+        <v>0.1756915456587507</v>
       </c>
       <c r="E8">
-        <v>1.067886125301328</v>
+        <v>1.067589433964855</v>
       </c>
       <c r="F8">
-        <v>2.598156962868856</v>
+        <v>2.591806517574526</v>
       </c>
       <c r="G8">
-        <v>2.340333951752314</v>
+        <v>0.8135400069099319</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.52309382660232</v>
       </c>
       <c r="I8">
-        <v>0.615741020721984</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6158247097318821</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.96408204893331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>16.96130430047816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3525858415888479</v>
+        <v>0.3525702885089004</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2809315167250475</v>
+        <v>0.2798471033491836</v>
       </c>
       <c r="E9">
-        <v>1.547971128679492</v>
+        <v>1.547432731997546</v>
       </c>
       <c r="F9">
-        <v>4.504555053141729</v>
+        <v>4.492106120850224</v>
       </c>
       <c r="G9">
-        <v>4.029593938605416</v>
+        <v>1.399071362605952</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.619603163827378</v>
       </c>
       <c r="I9">
-        <v>0.9256862371362544</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.9256684689316472</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>24.59551474213367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>24.5876002291871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4250245347683546</v>
+        <v>0.4249886470684032</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3971031564266951</v>
+        <v>0.3953258302344125</v>
       </c>
       <c r="E10">
-        <v>2.017226904564168</v>
+        <v>2.016131263581954</v>
       </c>
       <c r="F10">
-        <v>6.839742887248462</v>
+        <v>6.816828718544031</v>
       </c>
       <c r="G10">
-        <v>6.080618488790563</v>
+        <v>2.101907445828132</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.956458374491888</v>
       </c>
       <c r="I10">
-        <v>1.253870693465878</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.253428344371365</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>31.9244288711925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>31.90508973662509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4606792394364589</v>
+        <v>0.460617643371549</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4778857717141136</v>
+        <v>0.4754232052855514</v>
       </c>
       <c r="E11">
-        <v>2.312375785159034</v>
+        <v>2.31043307914841</v>
       </c>
       <c r="F11">
-        <v>8.560628328458478</v>
+        <v>8.525830200017708</v>
       </c>
       <c r="G11">
-        <v>7.584863130385145</v>
+        <v>2.613268595672309</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.937410982996369</v>
       </c>
       <c r="I11">
-        <v>1.475237071327989</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.474051171302563</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>36.44958146474875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>36.41483675990378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4750759066445482</v>
+        <v>0.4749934554919406</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5196950829578526</v>
+        <v>0.5167470999093666</v>
       </c>
       <c r="E12">
-        <v>2.456519527432235</v>
+        <v>2.453808122666828</v>
       </c>
       <c r="F12">
-        <v>9.476050306969825</v>
+        <v>9.432094465098658</v>
       </c>
       <c r="G12">
-        <v>8.383319493957544</v>
+        <v>2.883157078074021</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.457181378853846</v>
       </c>
       <c r="I12">
-        <v>1.588110122057593</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.586227040190252</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>38.63014864415572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>38.58245749807793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4719117736628391</v>
+        <v>0.4718349275355678</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5098323732763532</v>
+        <v>0.5070106929524059</v>
       </c>
       <c r="E13">
-        <v>2.423012331532092</v>
+        <v>2.420513097398342</v>
       </c>
       <c r="F13">
-        <v>9.258735040579836</v>
+        <v>9.217212213685997</v>
       </c>
       <c r="G13">
-        <v>8.193863384745214</v>
+        <v>2.819233615471632</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.333961385493865</v>
       </c>
       <c r="I13">
-        <v>1.561576073745009</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.559886383891417</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>38.12517080788143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>38.08098782626109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4618383795434227</v>
+        <v>0.4617754677023811</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4809903632964136</v>
+        <v>0.4784957660953069</v>
       </c>
       <c r="E14">
-        <v>2.323271510813797</v>
+        <v>2.321282125862751</v>
       </c>
       <c r="F14">
-        <v>8.628067555737289</v>
+        <v>8.592682100433876</v>
       </c>
       <c r="G14">
-        <v>7.643721669608681</v>
+        <v>2.63320439692103</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>4.975761160044243</v>
       </c>
       <c r="I14">
-        <v>1.483654893961308</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.482427001283732</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>36.6151373379019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>36.57958534129369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4558177381928772</v>
+        <v>0.4557611766325635</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4652766677935745</v>
+        <v>0.4629388367659573</v>
       </c>
       <c r="E15">
-        <v>2.267796766357066</v>
+        <v>2.266030038587914</v>
       </c>
       <c r="F15">
-        <v>8.287657528099629</v>
+        <v>8.255121533136162</v>
       </c>
       <c r="G15">
-        <v>7.346560668634169</v>
+        <v>2.532493752050129</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>4.782101335342304</v>
       </c>
       <c r="I15">
-        <v>1.440985251196402</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.439957055302756</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>35.77104250444603</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>35.73937249331647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4227742489194952</v>
+        <v>0.4227394002415394</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3927285100804454</v>
+        <v>0.390982116363503</v>
       </c>
       <c r="E16">
-        <v>2.000568646627912</v>
+        <v>1.99950417993557</v>
       </c>
       <c r="F16">
-        <v>6.74857579125873</v>
+        <v>6.726164410545778</v>
       </c>
       <c r="G16">
-        <v>6.000786740193547</v>
+        <v>2.074674481144811</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3.904382430595916</v>
       </c>
       <c r="I16">
-        <v>1.241742295452191</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.241326099656824</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>31.66687923263788</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>31.64814418854638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4033579202300075</v>
+        <v>0.4033305162403451</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3574955712383883</v>
+        <v>0.3559820115540901</v>
       </c>
       <c r="E17">
-        <v>1.863674629051189</v>
+        <v>1.862825238479871</v>
       </c>
       <c r="F17">
-        <v>6.022826969573941</v>
+        <v>6.004097146922021</v>
       </c>
       <c r="G17">
-        <v>5.364663964587251</v>
+        <v>1.857336289965261</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3.489484915753991</v>
       </c>
       <c r="I17">
-        <v>1.143462446708327</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.143221558735256</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>29.54258040978482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>29.52811727452934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3924060299427907</v>
+        <v>0.3923819111438149</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.339317899305442</v>
+        <v>0.3379146256656185</v>
       </c>
       <c r="E18">
-        <v>1.791070195281776</v>
+        <v>1.790310885738876</v>
       </c>
       <c r="F18">
-        <v>5.654658609404692</v>
+        <v>5.637607062712277</v>
       </c>
       <c r="G18">
-        <v>5.041506015547668</v>
+        <v>1.746688902358684</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.278784513719046</v>
       </c>
       <c r="I18">
-        <v>1.092312497493907</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.092141289928215</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>28.4105430898822</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>28.39792973127788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3887292776037725</v>
+        <v>0.3887061494248201</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.333449801296922</v>
+        <v>0.3320808879717276</v>
       </c>
       <c r="E19">
-        <v>1.767332381471746</v>
+        <v>1.766599640335926</v>
       </c>
       <c r="F19">
-        <v>5.536773796023198</v>
+        <v>5.520236251767386</v>
       </c>
       <c r="G19">
-        <v>4.93796141694817</v>
+        <v>1.711200541387754</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.211288007397172</v>
       </c>
       <c r="I19">
-        <v>1.075731235593565</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.07557998229899</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>28.03965884879381</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>28.02759850701756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4054009813742425</v>
+        <v>0.4053729017812202</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.36101098972523</v>
+        <v>0.3594753870356016</v>
       </c>
       <c r="E20">
-        <v>1.877556997036137</v>
+        <v>1.876688707582488</v>
       </c>
       <c r="F20">
-        <v>6.094535765426372</v>
+        <v>6.075465362027415</v>
       </c>
       <c r="G20">
-        <v>5.427568333488864</v>
+        <v>1.878855426162147</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.5305059066675</v>
       </c>
       <c r="I20">
-        <v>1.15331827178418</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.153062425558666</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>29.75861948212435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>29.74377307494643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4647627432435257</v>
+        <v>0.4646962825190428</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4890053036815232</v>
+        <v>0.486425387632508</v>
       </c>
       <c r="E21">
-        <v>2.351255372246399</v>
+        <v>2.349138748325245</v>
       </c>
       <c r="F21">
-        <v>8.802580436079296</v>
+        <v>8.765618172783206</v>
       </c>
       <c r="G21">
-        <v>7.796002407450146</v>
+        <v>2.684754603402411</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.074960795938154</v>
       </c>
       <c r="I21">
-        <v>1.505358884282522</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.504016239019556</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>37.03980954139865</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>37.00207300436227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4647627432435257</v>
+        <v>0.4646962825190428</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4890053036815232</v>
+        <v>0.486425387632508</v>
       </c>
       <c r="E22">
-        <v>2.351255372246399</v>
+        <v>2.349138748325245</v>
       </c>
       <c r="F22">
-        <v>8.802580436079296</v>
+        <v>8.765618172783206</v>
       </c>
       <c r="G22">
-        <v>7.796002407450146</v>
+        <v>2.684754603402411</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.074960795938154</v>
       </c>
       <c r="I22">
-        <v>1.505358884282522</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.504016239019556</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>37.03980954139865</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>37.00207300436227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4848535455473524</v>
+        <v>0.4646962825190428</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5533836308906217</v>
+        <v>0.486425387632508</v>
       </c>
       <c r="E23">
-        <v>2.568755121845527</v>
+        <v>2.349138748325245</v>
       </c>
       <c r="F23">
-        <v>10.22429522437852</v>
+        <v>8.765618172783206</v>
       </c>
       <c r="G23">
-        <v>9.035244603219951</v>
+        <v>2.684754603402411</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.074960795938154</v>
       </c>
       <c r="I23">
-        <v>1.678346245890125</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.504016239019556</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>40.31258281743163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>37.00207300436227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4044766771148431</v>
+        <v>0.4646962825190428</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3594154634818523</v>
+        <v>0.486425387632508</v>
       </c>
       <c r="E24">
-        <v>1.871262558033038</v>
+        <v>2.349138748325245</v>
       </c>
       <c r="F24">
-        <v>6.061969648996609</v>
+        <v>8.765618172783206</v>
       </c>
       <c r="G24">
-        <v>5.399002164983315</v>
+        <v>2.684754603402411</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.074960795938154</v>
       </c>
       <c r="I24">
-        <v>1.148846475282056</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.504016239019556</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>29.66068137242291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>37.00207300436227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3271642852797925</v>
+        <v>0.4646962825190428</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2485029244347459</v>
+        <v>0.486425387632508</v>
       </c>
       <c r="E25">
-        <v>1.40581763537277</v>
+        <v>2.349138748325245</v>
       </c>
       <c r="F25">
-        <v>3.88994965271948</v>
+        <v>8.765618172783206</v>
       </c>
       <c r="G25">
-        <v>3.486978705238599</v>
+        <v>2.684754603402411</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5.074960795938154</v>
       </c>
       <c r="I25">
-        <v>0.831378822873404</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.504016239019556</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>22.34851843441336</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>37.00207300436227</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2732570992319836</v>
+        <v>3.35699454507818</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.187959646214594</v>
+        <v>0.3196653554308</v>
       </c>
       <c r="E2">
-        <v>1.127542013011691</v>
+        <v>0.3796491236956001</v>
       </c>
       <c r="F2">
-        <v>2.803055342087788</v>
+        <v>2.099162256886757</v>
       </c>
       <c r="G2">
-        <v>0.8794251771007993</v>
+        <v>0.0007845972254381106</v>
       </c>
       <c r="H2">
-        <v>1.645244039815708</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6532484757595896</v>
+        <v>0.5159547922896053</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2.412368300816951</v>
       </c>
       <c r="M2">
-        <v>17.92067308900391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.922796120944568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2378270683274621</v>
+        <v>2.935544298313175</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1537684981987582</v>
+        <v>0.2755815807722257</v>
       </c>
       <c r="E3">
-        <v>0.9577874109468922</v>
+        <v>0.334347897907179</v>
       </c>
       <c r="F3">
-        <v>2.224546713372405</v>
+        <v>1.936964001551118</v>
       </c>
       <c r="G3">
-        <v>0.6982990031048644</v>
+        <v>0.0007966979627744795</v>
       </c>
       <c r="H3">
-        <v>1.310521514008627</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5481900984805108</v>
+        <v>0.4603570825645988</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2.087427002644546</v>
       </c>
       <c r="M3">
-        <v>15.19960433874019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.738873900019541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2164608554693785</v>
+        <v>2.680843329528443</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1346865651501616</v>
+        <v>0.2490929540195452</v>
       </c>
       <c r="E4">
-        <v>0.8591959155723288</v>
+        <v>0.3068523471625326</v>
       </c>
       <c r="F4">
-        <v>1.916778360272929</v>
+        <v>1.84629618296286</v>
       </c>
       <c r="G4">
-        <v>0.6008817280661702</v>
+        <v>0.0008042845395612719</v>
       </c>
       <c r="H4">
-        <v>1.132136698942872</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4884428570921742</v>
+        <v>0.4265223429521257</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.890603552832175</v>
       </c>
       <c r="M4">
-        <v>13.61264267757232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.633835029556366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2078344006070978</v>
+        <v>2.577923331708973</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1272752712904719</v>
+        <v>0.238417514850795</v>
       </c>
       <c r="E5">
-        <v>0.820082448489714</v>
+        <v>0.2957107930587739</v>
       </c>
       <c r="F5">
-        <v>1.800564487687907</v>
+        <v>1.811362648116003</v>
       </c>
       <c r="G5">
-        <v>0.5638492515306268</v>
+        <v>0.0008074191827536215</v>
       </c>
       <c r="H5">
-        <v>1.064708757127519</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4649941055140303</v>
+        <v>0.4127939305740114</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.810954804492212</v>
       </c>
       <c r="M5">
-        <v>12.9816922735547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.592796744062881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2064064090096309</v>
+        <v>2.560882141688751</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1260638986843787</v>
+        <v>0.2366513261243597</v>
       </c>
       <c r="E6">
-        <v>0.8136434425790497</v>
+        <v>0.2938640922278992</v>
       </c>
       <c r="F6">
-        <v>1.781758260645674</v>
+        <v>1.805677387029334</v>
       </c>
       <c r="G6">
-        <v>0.5578419134051273</v>
+        <v>0.0008079423876593336</v>
       </c>
       <c r="H6">
-        <v>1.053793285411587</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4611476652274433</v>
+        <v>0.4105174867172963</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.797759703624735</v>
       </c>
       <c r="M6">
-        <v>12.87774709060361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.586083098201954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2163442103811377</v>
+        <v>2.679451968822605</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1345852656023396</v>
+        <v>0.2489485329166428</v>
       </c>
       <c r="E7">
-        <v>0.8586645062838159</v>
+        <v>0.3067018540686064</v>
       </c>
       <c r="F7">
-        <v>1.915176813515032</v>
+        <v>1.845817186089135</v>
       </c>
       <c r="G7">
-        <v>0.6003723918886976</v>
+        <v>0.000804326635570926</v>
       </c>
       <c r="H7">
-        <v>1.131207751257037</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4881233095925595</v>
+        <v>0.4263369762197016</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.889527267949632</v>
       </c>
       <c r="M7">
-        <v>13.60407562490064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.633274693683788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2609487295499804</v>
+        <v>3.210737270053301</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1756915456587507</v>
+        <v>0.3043279716234792</v>
       </c>
       <c r="E8">
-        <v>1.067589433964855</v>
+        <v>0.3639518552094287</v>
       </c>
       <c r="F8">
-        <v>2.591806517574526</v>
+        <v>2.041238138487842</v>
       </c>
       <c r="G8">
-        <v>0.8135400069099319</v>
+        <v>0.0007887393701019318</v>
       </c>
       <c r="H8">
-        <v>1.52309382660232</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6158247097318821</v>
+        <v>0.4967113008176227</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2.299694102427395</v>
       </c>
       <c r="M8">
-        <v>16.96130430047816</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.857602908133842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3525702885089004</v>
+        <v>4.292717469791171</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2798471033491836</v>
+        <v>0.4189278808278658</v>
       </c>
       <c r="E9">
-        <v>1.547432731997546</v>
+        <v>0.4796653440953875</v>
       </c>
       <c r="F9">
-        <v>4.492106120850224</v>
+        <v>2.507158992429197</v>
       </c>
       <c r="G9">
-        <v>1.399071362605952</v>
+        <v>0.0007592266358929961</v>
       </c>
       <c r="H9">
-        <v>2.619603163827378</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9256684689316472</v>
+        <v>0.6379888454613223</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>3.131578597261978</v>
       </c>
       <c r="M9">
-        <v>24.5876002291871</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.371458055997323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4249886470684032</v>
+        <v>5.124906230908778</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3953258302344125</v>
+        <v>0.5091371577563564</v>
       </c>
       <c r="E10">
-        <v>2.016131263581954</v>
+        <v>0.5683028333407663</v>
       </c>
       <c r="F10">
-        <v>6.816828718544031</v>
+        <v>2.919484767340521</v>
       </c>
       <c r="G10">
-        <v>2.101907445828132</v>
+        <v>0.0007378755263790337</v>
       </c>
       <c r="H10">
-        <v>3.956458374491888</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.253428344371365</v>
+        <v>0.745237913723841</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3.769771189734399</v>
       </c>
       <c r="M10">
-        <v>31.90508973662509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.81277837843129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.460617643371549</v>
+        <v>5.51509104439782</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4754232052855514</v>
+        <v>0.5521520088715022</v>
       </c>
       <c r="E11">
-        <v>2.31043307914841</v>
+        <v>0.6098438920325506</v>
       </c>
       <c r="F11">
-        <v>8.525830200017708</v>
+        <v>3.127741917706004</v>
       </c>
       <c r="G11">
-        <v>2.613268595672309</v>
+        <v>0.0007281482221120074</v>
       </c>
       <c r="H11">
-        <v>4.937410982996369</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.474051171302563</v>
+        <v>0.7951875335701999</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>4.068805197567201</v>
       </c>
       <c r="M11">
-        <v>36.41483675990378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>3.032638685714758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4749934554919406</v>
+        <v>5.664872677043604</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5167470999093666</v>
+        <v>0.5687960491162869</v>
       </c>
       <c r="E12">
-        <v>2.453808122666828</v>
+        <v>0.6257949924264921</v>
       </c>
       <c r="F12">
-        <v>9.432094465098658</v>
+        <v>3.210149585476557</v>
       </c>
       <c r="G12">
-        <v>2.883157078074021</v>
+        <v>0.0007244537260410737</v>
       </c>
       <c r="H12">
-        <v>5.457181378853846</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.586227040190252</v>
+        <v>0.8143117766842778</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>4.183588145632484</v>
       </c>
       <c r="M12">
-        <v>38.58245749807793</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>3.119188326642572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4718349275355678</v>
+        <v>5.63251796174012</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5070106929524059</v>
+        <v>0.5651943620502493</v>
       </c>
       <c r="E13">
-        <v>2.420513097398342</v>
+        <v>0.6223490134538707</v>
       </c>
       <c r="F13">
-        <v>9.217212213685997</v>
+        <v>3.192233598529498</v>
       </c>
       <c r="G13">
-        <v>2.819233615471632</v>
+        <v>0.0007252500508430788</v>
       </c>
       <c r="H13">
-        <v>5.333961385493865</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.559886383891417</v>
+        <v>0.8101829457037724</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>4.158793584699652</v>
       </c>
       <c r="M13">
-        <v>38.08098782626109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>3.100391915129123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4617754677023811</v>
+        <v>5.527370760864869</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4784957660953069</v>
+        <v>0.5535137434212913</v>
       </c>
       <c r="E14">
-        <v>2.321282125862751</v>
+        <v>0.6111514890244365</v>
       </c>
       <c r="F14">
-        <v>8.592682100433876</v>
+        <v>3.134446910580607</v>
       </c>
       <c r="G14">
-        <v>2.63320439692103</v>
+        <v>0.0007278445508442579</v>
       </c>
       <c r="H14">
-        <v>4.975761160044243</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.482427001283732</v>
+        <v>0.7967564257133688</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>4.078215612148085</v>
       </c>
       <c r="M14">
-        <v>36.57958534129369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>3.039689639518727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4557611766325635</v>
+        <v>5.463240773982534</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4629388367659573</v>
+        <v>0.5464076548360026</v>
       </c>
       <c r="E15">
-        <v>2.266030038587914</v>
+        <v>0.6043228849518201</v>
       </c>
       <c r="F15">
-        <v>8.255121533136162</v>
+        <v>3.09953149152193</v>
       </c>
       <c r="G15">
-        <v>2.532493752050129</v>
+        <v>0.0007294320334780245</v>
       </c>
       <c r="H15">
-        <v>4.782101335342304</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.439957055302756</v>
+        <v>0.7885609715040829</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>4.029070156999751</v>
       </c>
       <c r="M15">
-        <v>35.73937249331647</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>3.002954763913877</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4227394002415394</v>
+        <v>5.099669519033341</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.390982116363503</v>
+        <v>0.5063715559106754</v>
       </c>
       <c r="E16">
-        <v>1.99950417993557</v>
+        <v>0.5656162069463093</v>
       </c>
       <c r="F16">
-        <v>6.726164410545778</v>
+        <v>2.90633717072987</v>
       </c>
       <c r="G16">
-        <v>2.074674481144811</v>
+        <v>0.0007385102152363225</v>
       </c>
       <c r="H16">
-        <v>3.904382430595916</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.241326099656824</v>
+        <v>0.7420003931426038</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>3.750427697736939</v>
       </c>
       <c r="M16">
-        <v>31.64814418854638</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.798838618813619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4033305162403451</v>
+        <v>4.879839757844081</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3559820115540901</v>
+        <v>0.4823631964760011</v>
       </c>
       <c r="E17">
-        <v>1.862825238479871</v>
+        <v>0.5422124725132065</v>
       </c>
       <c r="F17">
-        <v>6.004097146922021</v>
+        <v>2.793488889946332</v>
       </c>
       <c r="G17">
-        <v>1.857336289965261</v>
+        <v>0.0007440698600347776</v>
       </c>
       <c r="H17">
-        <v>3.489484915753991</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.143221558735256</v>
+        <v>0.713762059426486</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>3.58191274998012</v>
       </c>
       <c r="M17">
-        <v>29.52811727452934</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.678868061391938</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3923819111438149</v>
+        <v>4.754468266700201</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3379146256656185</v>
+        <v>0.4687354099743288</v>
       </c>
       <c r="E18">
-        <v>1.790310885738876</v>
+        <v>0.5288628625115877</v>
       </c>
       <c r="F18">
-        <v>5.637607062712277</v>
+        <v>2.730488794636926</v>
       </c>
       <c r="G18">
-        <v>1.746688902358684</v>
+        <v>0.0007472668702694008</v>
       </c>
       <c r="H18">
-        <v>3.278784513719046</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.092141289928215</v>
+        <v>0.6976264625788815</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>3.485787494750355</v>
       </c>
       <c r="M18">
-        <v>28.39792973127788</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.611623706136285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3887061494248201</v>
+        <v>4.712193368594228</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3320808879717276</v>
+        <v>0.4641504742989753</v>
       </c>
       <c r="E19">
-        <v>1.766599640335926</v>
+        <v>0.5243608553189389</v>
       </c>
       <c r="F19">
-        <v>5.520236251767386</v>
+        <v>2.709470027509468</v>
       </c>
       <c r="G19">
-        <v>1.711200541387754</v>
+        <v>0.0007483494373528184</v>
       </c>
       <c r="H19">
-        <v>3.211288007397172</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.07557998229899</v>
+        <v>0.6921803340093788</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>3.453370548449413</v>
       </c>
       <c r="M19">
-        <v>28.02759850701756</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.589143197899446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4053729017812202</v>
+        <v>4.903128021108671</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3594753870356016</v>
+        <v>0.4848997096918595</v>
       </c>
       <c r="E20">
-        <v>1.876688707582488</v>
+        <v>0.5446919929149843</v>
       </c>
       <c r="F20">
-        <v>6.075465362027415</v>
+        <v>2.805300614740133</v>
       </c>
       <c r="G20">
-        <v>1.878855426162147</v>
+        <v>0.0007434781628798958</v>
       </c>
       <c r="H20">
-        <v>3.5305059066675</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.153062425558666</v>
+        <v>0.7167567915365538</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>3.599766711732514</v>
       </c>
       <c r="M20">
-        <v>29.74377307494643</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.691453412467865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4646962825190428</v>
+        <v>5.558196851159494</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.486425387632508</v>
+        <v>0.5569343413978345</v>
       </c>
       <c r="E21">
-        <v>2.349138748325245</v>
+        <v>0.6144340847222622</v>
       </c>
       <c r="F21">
-        <v>8.765618172783206</v>
+        <v>3.151318918205448</v>
       </c>
       <c r="G21">
-        <v>2.684754603402411</v>
+        <v>0.0007270828609845518</v>
       </c>
       <c r="H21">
-        <v>5.074960795938154</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.504016239019556</v>
+        <v>0.8006940554964785</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>4.101838763951889</v>
       </c>
       <c r="M21">
-        <v>37.00207300436227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>3.057425070958871</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4646962825190428</v>
+        <v>5.998355208009571</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.486425387632508</v>
+        <v>0.6061287585055197</v>
       </c>
       <c r="E22">
-        <v>2.349138748325245</v>
+        <v>0.6613276467675746</v>
       </c>
       <c r="F22">
-        <v>8.765618172783206</v>
+        <v>3.398481583432186</v>
       </c>
       <c r="G22">
-        <v>2.684754603402411</v>
+        <v>0.0007162980850475908</v>
       </c>
       <c r="H22">
-        <v>5.074960795938154</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.504016239019556</v>
+        <v>0.8567989484857321</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>4.439159151071806</v>
       </c>
       <c r="M22">
-        <v>37.00207300436227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>3.316146154509042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4646962825190428</v>
+        <v>5.762197142722357</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.486425387632508</v>
+        <v>0.5796515198018426</v>
       </c>
       <c r="E23">
-        <v>2.349138748325245</v>
+        <v>0.6361619860008432</v>
       </c>
       <c r="F23">
-        <v>8.765618172783206</v>
+        <v>3.26442228343555</v>
       </c>
       <c r="G23">
-        <v>2.684754603402411</v>
+        <v>0.0007220639108026308</v>
       </c>
       <c r="H23">
-        <v>5.074960795938154</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.504016239019556</v>
+        <v>0.8267241954816456</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>4.258171940037414</v>
       </c>
       <c r="M23">
-        <v>37.00207300436227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>3.176062454766182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4646962825190428</v>
+        <v>4.892596272506466</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.486425387632508</v>
+        <v>0.4837524123048809</v>
       </c>
       <c r="E24">
-        <v>2.349138748325245</v>
+        <v>0.5435706763772004</v>
       </c>
       <c r="F24">
-        <v>8.765618172783206</v>
+        <v>2.799954726260353</v>
       </c>
       <c r="G24">
-        <v>2.684754603402411</v>
+        <v>0.0007437456663930815</v>
       </c>
       <c r="H24">
-        <v>5.074960795938154</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.504016239019556</v>
+        <v>0.7154025678780584</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>3.591692601384239</v>
       </c>
       <c r="M24">
-        <v>37.00207300436227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.685758231676104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4646962825190428</v>
+        <v>3.994512627493805</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.486425387632508</v>
+        <v>0.3870648185739043</v>
       </c>
       <c r="E25">
-        <v>2.349138748325245</v>
+        <v>0.4478513889277735</v>
       </c>
       <c r="F25">
-        <v>8.765618172783206</v>
+        <v>2.370429779599704</v>
       </c>
       <c r="G25">
-        <v>2.684754603402411</v>
+        <v>0.000767126907350917</v>
       </c>
       <c r="H25">
-        <v>5.074960795938154</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.504016239019556</v>
+        <v>0.5992833163574005</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>2.902626349837305</v>
       </c>
       <c r="M25">
-        <v>37.00207300436227</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.22278289613007</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.35699454507818</v>
+        <v>0.2705836023574761</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3196653554308</v>
+        <v>0.1229861050533003</v>
       </c>
       <c r="E2">
-        <v>0.3796491236956001</v>
+        <v>0.1486809606705286</v>
       </c>
       <c r="F2">
-        <v>2.099162256886757</v>
+        <v>1.348647360555802</v>
       </c>
       <c r="G2">
-        <v>0.0007845972254381106</v>
+        <v>1.008080423234432</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6391888915350563</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5159547922896053</v>
+        <v>0.2036858396508592</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.766557161213029</v>
       </c>
       <c r="L2">
-        <v>2.412368300816951</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.84055386789918</v>
       </c>
       <c r="O2">
-        <v>1.922796120944568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.935544298313175</v>
+        <v>0.2365424299593997</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2755815807722257</v>
+        <v>0.1088982282892488</v>
       </c>
       <c r="E3">
-        <v>0.334347897907179</v>
+        <v>0.1322526504414121</v>
       </c>
       <c r="F3">
-        <v>1.936964001551118</v>
+        <v>1.250635284283092</v>
       </c>
       <c r="G3">
-        <v>0.0007966979627744795</v>
+        <v>0.9299253766707238</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.6111300178015</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4603570825645988</v>
+        <v>0.1816250066873621</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2.395502595815515</v>
       </c>
       <c r="L3">
-        <v>2.087427002644546</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.8920796409011138</v>
       </c>
       <c r="O3">
-        <v>1.738873900019541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.680843329528443</v>
+        <v>0.2158048793115626</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2490929540195452</v>
+        <v>0.1003388499798206</v>
       </c>
       <c r="E4">
-        <v>0.3068523471625326</v>
+        <v>0.1223477795423662</v>
       </c>
       <c r="F4">
-        <v>1.84629618296286</v>
+        <v>1.193195186438643</v>
       </c>
       <c r="G4">
-        <v>0.0008042845395612719</v>
+        <v>0.8842648507364004</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.5952084531859896</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4265223429521257</v>
+        <v>0.1683954695531114</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.169429987502383</v>
       </c>
       <c r="L4">
-        <v>1.890603552832175</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.9250660568800595</v>
       </c>
       <c r="O4">
-        <v>1.633835029556366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.577923331708973</v>
+        <v>0.207391296591183</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.238417514850795</v>
+        <v>0.09687132705897028</v>
       </c>
       <c r="E5">
-        <v>0.2957107930587739</v>
+        <v>0.1183529841026036</v>
       </c>
       <c r="F5">
-        <v>1.811362648116003</v>
+        <v>1.1704261349918</v>
       </c>
       <c r="G5">
-        <v>0.0008074191827536215</v>
+        <v>0.8661977507031366</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5890281065502023</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4127939305740114</v>
+        <v>0.1630764067465407</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.077673896356686</v>
       </c>
       <c r="L5">
-        <v>1.810954804492212</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.9388382381545459</v>
       </c>
       <c r="O5">
-        <v>1.592796744062881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.560882141688751</v>
+        <v>0.2059963557882583</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2366513261243597</v>
+        <v>0.09629672098773767</v>
       </c>
       <c r="E6">
-        <v>0.2938640922278992</v>
+        <v>0.1176920389766316</v>
       </c>
       <c r="F6">
-        <v>1.805677387029334</v>
+        <v>1.166682481735691</v>
       </c>
       <c r="G6">
-        <v>0.0008079423876593336</v>
+        <v>0.8632290676735153</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5880198752442993</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4105174867172963</v>
+        <v>0.1621973281270286</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.062458243536241</v>
       </c>
       <c r="L6">
-        <v>1.797759703624735</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.9411447635842851</v>
       </c>
       <c r="O6">
-        <v>1.586083098201954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.679451968822605</v>
+        <v>0.2156912656446792</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2489485329166428</v>
+        <v>0.1002920057027126</v>
       </c>
       <c r="E7">
-        <v>0.3067018540686064</v>
+        <v>0.1222937416871019</v>
       </c>
       <c r="F7">
-        <v>1.845817186089135</v>
+        <v>1.192885595330807</v>
       </c>
       <c r="G7">
-        <v>0.000804326635570926</v>
+        <v>0.8840190629192364</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5951238829556189</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4263369762197016</v>
+        <v>0.1683234523256232</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.168191123978175</v>
       </c>
       <c r="L7">
-        <v>1.889527267949632</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.9252504693286285</v>
       </c>
       <c r="O7">
-        <v>1.633274693683788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.210737270053301</v>
+        <v>0.2588096697559479</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3043279716234792</v>
+        <v>0.118108358472881</v>
       </c>
       <c r="E8">
-        <v>0.3639518552094287</v>
+        <v>0.1429759916807214</v>
       </c>
       <c r="F8">
-        <v>2.041238138487842</v>
+        <v>1.314252588160244</v>
       </c>
       <c r="G8">
-        <v>0.0007887393701019318</v>
+        <v>0.9806214220390927</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.6292300468111165</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4967113008176227</v>
+        <v>0.1960091099804586</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.638208391904186</v>
       </c>
       <c r="L8">
-        <v>2.299694102427395</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.8580340813806302</v>
       </c>
       <c r="O8">
-        <v>1.857602908133842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.292717469791171</v>
+        <v>0.3448634973990039</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4189278808278658</v>
+        <v>0.1538788544326621</v>
       </c>
       <c r="E9">
-        <v>0.4796653440953875</v>
+        <v>0.1851900572240552</v>
       </c>
       <c r="F9">
-        <v>2.507158992429197</v>
+        <v>1.576469196796765</v>
       </c>
       <c r="G9">
-        <v>0.0007592266358929961</v>
+        <v>1.190731741974844</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.7074950761017362</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6379888454613223</v>
+        <v>0.2531680510301868</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3.577377366816904</v>
       </c>
       <c r="L9">
-        <v>3.131578597261978</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.7373786364508517</v>
       </c>
       <c r="O9">
-        <v>2.371458055997323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.124906230908778</v>
+        <v>0.4093003292055499</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5091371577563564</v>
+        <v>0.1808410015505899</v>
       </c>
       <c r="E10">
-        <v>0.5683028333407663</v>
+        <v>0.217535914141763</v>
       </c>
       <c r="F10">
-        <v>2.919484767340521</v>
+        <v>1.787650083684511</v>
       </c>
       <c r="G10">
-        <v>0.0007378755263790337</v>
+        <v>1.361061829959198</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7734787101482823</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.745237913723841</v>
+        <v>0.2974611631922244</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>4.283459342056688</v>
       </c>
       <c r="L10">
-        <v>3.769771189734399</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6562031218092788</v>
       </c>
       <c r="O10">
-        <v>2.81277837843129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.51509104439782</v>
+        <v>0.4389495301905981</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5521520088715022</v>
+        <v>0.1932977240306428</v>
       </c>
       <c r="E11">
-        <v>0.6098438920325506</v>
+        <v>0.232619473023405</v>
       </c>
       <c r="F11">
-        <v>3.127741917706004</v>
+        <v>1.888678268446014</v>
       </c>
       <c r="G11">
-        <v>0.0007281482221120074</v>
+        <v>1.442847562432547</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.805720739019705</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7951875335701999</v>
+        <v>0.3182467880713773</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>4.60951625450042</v>
       </c>
       <c r="L11">
-        <v>4.068805197567201</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.6210604319915074</v>
       </c>
       <c r="O11">
-        <v>3.032638685714758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.664872677043604</v>
+        <v>0.4502316469919947</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5687960491162869</v>
+        <v>0.1980462211564173</v>
       </c>
       <c r="E12">
-        <v>0.6257949924264921</v>
+        <v>0.2383916546148015</v>
       </c>
       <c r="F12">
-        <v>3.210149585476557</v>
+        <v>1.927734893558153</v>
       </c>
       <c r="G12">
-        <v>0.0007244537260410737</v>
+        <v>1.474513540025384</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.8182855693305555</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8143117766842778</v>
+        <v>0.326221920281327</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4.733808771588428</v>
       </c>
       <c r="L12">
-        <v>4.183588145632484</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.6080247764203586</v>
       </c>
       <c r="O12">
-        <v>3.119188326642572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.63251796174012</v>
+        <v>0.4477993085559007</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5651943620502493</v>
+        <v>0.197022084838224</v>
       </c>
       <c r="E13">
-        <v>0.6223490134538707</v>
+        <v>0.2371457037294604</v>
       </c>
       <c r="F13">
-        <v>3.192233598529498</v>
+        <v>1.919286330617282</v>
       </c>
       <c r="G13">
-        <v>0.0007252500508430788</v>
+        <v>1.467661463743553</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.8155630956481161</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8101829457037724</v>
+        <v>0.3244994908940129</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>4.707001497261615</v>
       </c>
       <c r="L13">
-        <v>4.158793584699652</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.6108198729594583</v>
       </c>
       <c r="O13">
-        <v>3.100391915129123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.527370760864869</v>
+        <v>0.4398765850300776</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5535137434212913</v>
+        <v>0.1936877327974997</v>
       </c>
       <c r="E14">
-        <v>0.6111514890244365</v>
+        <v>0.2330930998464069</v>
       </c>
       <c r="F14">
-        <v>3.134446910580607</v>
+        <v>1.891874934287912</v>
       </c>
       <c r="G14">
-        <v>0.0007278445508442579</v>
+        <v>1.445438334151021</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.8067471151693439</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7967564257133688</v>
+        <v>0.318900744901697</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>4.619724650348928</v>
       </c>
       <c r="L14">
-        <v>4.078215612148085</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.6199824330750543</v>
       </c>
       <c r="O14">
-        <v>3.039689639518727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.463240773982534</v>
+        <v>0.4350309921120044</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5464076548360026</v>
+        <v>0.1916495572367722</v>
       </c>
       <c r="E15">
-        <v>0.6043228849518201</v>
+        <v>0.2306188523287531</v>
       </c>
       <c r="F15">
-        <v>3.09953149152193</v>
+        <v>1.875191476762836</v>
       </c>
       <c r="G15">
-        <v>0.0007294320334780245</v>
+        <v>1.431919015800958</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.8013944784464684</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7885609715040829</v>
+        <v>0.3154852980719483</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>4.566375974028176</v>
       </c>
       <c r="L15">
-        <v>4.029070156999751</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.6256306886702729</v>
       </c>
       <c r="O15">
-        <v>3.002954763913877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.099669519033341</v>
+        <v>0.4073699768985932</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5063715559106754</v>
+        <v>0.1800311012333538</v>
       </c>
       <c r="E16">
-        <v>0.5656162069463093</v>
+        <v>0.2165582034342819</v>
       </c>
       <c r="F16">
-        <v>2.90633717072987</v>
+        <v>1.78115464361467</v>
       </c>
       <c r="G16">
-        <v>0.0007385102152363225</v>
+        <v>1.355809901655817</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.7714193520124013</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7420003931426038</v>
+        <v>0.2961166247385449</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>4.262258749235627</v>
       </c>
       <c r="L16">
-        <v>3.750427697736939</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.658536981150494</v>
       </c>
       <c r="O16">
-        <v>2.798838618813619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.879839757844081</v>
+        <v>0.3904913142225155</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4823631964760011</v>
+        <v>0.1729552406575436</v>
       </c>
       <c r="E17">
-        <v>0.5422124725132065</v>
+        <v>0.2080319755034594</v>
       </c>
       <c r="F17">
-        <v>2.793488889946332</v>
+        <v>1.724795288338285</v>
       </c>
       <c r="G17">
-        <v>0.0007440698600347776</v>
+        <v>1.310273538527753</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.753624745218815</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.713762059426486</v>
+        <v>0.2844061198196641</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>4.07702048957924</v>
       </c>
       <c r="L17">
-        <v>3.58191274998012</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.6791915670042306</v>
       </c>
       <c r="O17">
-        <v>2.678868061391938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.754468266700201</v>
+        <v>0.3808144340140274</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4687354099743288</v>
+        <v>0.1689031655563724</v>
       </c>
       <c r="E18">
-        <v>0.5288628625115877</v>
+        <v>0.2031621963421415</v>
       </c>
       <c r="F18">
-        <v>2.730488794636926</v>
+        <v>1.692840189060107</v>
       </c>
       <c r="G18">
-        <v>0.0007472668702694008</v>
+        <v>1.284482086865154</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7435969350028415</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6976264625788815</v>
+        <v>0.2777296322583851</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3.970925366616484</v>
       </c>
       <c r="L18">
-        <v>3.485787494750355</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.6912384909169704</v>
       </c>
       <c r="O18">
-        <v>2.611623706136285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.712193368594228</v>
+        <v>0.3775431994057357</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4641504742989753</v>
+        <v>0.1675341431868702</v>
       </c>
       <c r="E19">
-        <v>0.5243608553189389</v>
+        <v>0.2015190508765414</v>
       </c>
       <c r="F19">
-        <v>2.709470027509468</v>
+        <v>1.682097487689319</v>
       </c>
       <c r="G19">
-        <v>0.0007483494373528184</v>
+        <v>1.275816001159683</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7402362517353538</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6921803340093788</v>
+        <v>0.2754788742826122</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3.935076944518187</v>
       </c>
       <c r="L19">
-        <v>3.453370548449413</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.6953455967322535</v>
       </c>
       <c r="O19">
-        <v>2.589143197899446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.903128021108671</v>
+        <v>0.3922847958105962</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4848997096918595</v>
+        <v>0.1737066118480044</v>
       </c>
       <c r="E20">
-        <v>0.5446919929149843</v>
+        <v>0.2089360086551508</v>
       </c>
       <c r="F20">
-        <v>2.805300614740133</v>
+        <v>1.730746497748697</v>
       </c>
       <c r="G20">
-        <v>0.0007434781628798958</v>
+        <v>1.315079045436477</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.7554973242189646</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7167567915365538</v>
+        <v>0.2856465211096264</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>4.096692092342835</v>
       </c>
       <c r="L20">
-        <v>3.599766711732514</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6769754642648538</v>
       </c>
       <c r="O20">
-        <v>2.691453412467865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.558196851159494</v>
+        <v>0.4422021470663964</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5569343413978345</v>
+        <v>0.1946662277305364</v>
       </c>
       <c r="E21">
-        <v>0.6144340847222622</v>
+        <v>0.2342817480127479</v>
       </c>
       <c r="F21">
-        <v>3.151318918205448</v>
+        <v>1.899903899777101</v>
       </c>
       <c r="G21">
-        <v>0.0007270828609845518</v>
+        <v>1.4519462784545</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.8093266346181451</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8006940554964785</v>
+        <v>0.3205423015993318</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>4.645336622960372</v>
       </c>
       <c r="L21">
-        <v>4.101838763951889</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.617283651007166</v>
       </c>
       <c r="O21">
-        <v>3.057425070958871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.998355208009571</v>
+        <v>0.475147552278969</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6061287585055197</v>
+        <v>0.2085496876368467</v>
       </c>
       <c r="E22">
-        <v>0.6613276467675746</v>
+        <v>0.2512024234626935</v>
       </c>
       <c r="F22">
-        <v>3.398481583432186</v>
+        <v>2.015164256576185</v>
       </c>
       <c r="G22">
-        <v>0.0007162980850475908</v>
+        <v>1.545492341594581</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.8465983054058484</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8567989484857321</v>
+        <v>0.3439620718735625</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>5.008764801290397</v>
       </c>
       <c r="L22">
-        <v>4.439159151071806</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.5798659876337191</v>
       </c>
       <c r="O22">
-        <v>3.316146154509042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.762197142722357</v>
+        <v>0.4575323704717817</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5796515198018426</v>
+        <v>0.2011215039794081</v>
       </c>
       <c r="E23">
-        <v>0.6361619860008432</v>
+        <v>0.242136391757974</v>
       </c>
       <c r="F23">
-        <v>3.26442228343555</v>
+        <v>1.953186241861161</v>
       </c>
       <c r="G23">
-        <v>0.0007220639108026308</v>
+        <v>1.495162805147544</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.8265017066582629</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8267241954816456</v>
+        <v>0.3314018889681165</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>4.81430764331202</v>
       </c>
       <c r="L23">
-        <v>4.258171940037414</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5996850998500207</v>
       </c>
       <c r="O23">
-        <v>3.176062454766182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.892596272506466</v>
+        <v>0.3914738794988892</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4837524123048809</v>
+        <v>0.173366867597764</v>
       </c>
       <c r="E24">
-        <v>0.5435706763772004</v>
+        <v>0.2085271959387782</v>
       </c>
       <c r="F24">
-        <v>2.799954726260353</v>
+        <v>1.728054571173757</v>
       </c>
       <c r="G24">
-        <v>0.0007437456663930815</v>
+        <v>1.312905272915714</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7546501029991646</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7154025678780584</v>
+        <v>0.2850855620736041</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>4.087797321438643</v>
       </c>
       <c r="L24">
-        <v>3.591692601384239</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6779768287079508</v>
       </c>
       <c r="O24">
-        <v>2.685758231676104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.994512627493805</v>
+        <v>0.3213934993526379</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3870648185739043</v>
+        <v>0.1440957869152442</v>
       </c>
       <c r="E25">
-        <v>0.4478513889277735</v>
+        <v>0.1735612308622194</v>
       </c>
       <c r="F25">
-        <v>2.370429779599704</v>
+        <v>1.502571337251482</v>
       </c>
       <c r="G25">
-        <v>0.000767126907350917</v>
+        <v>1.131349376597356</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.6849527314544019</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5992833163574005</v>
+        <v>0.2373442065602518</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>3.32090713845912</v>
       </c>
       <c r="L25">
-        <v>2.902626349837305</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.7687591792158983</v>
       </c>
       <c r="O25">
-        <v>2.22278289613007</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2705836023574761</v>
+        <v>0.1423738854105352</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1229861050533003</v>
+        <v>0.1356897205440646</v>
       </c>
       <c r="E2">
-        <v>0.1486809606705286</v>
+        <v>0.151826455498675</v>
       </c>
       <c r="F2">
-        <v>1.348647360555802</v>
+        <v>1.919499299024324</v>
       </c>
       <c r="G2">
-        <v>1.008080423234432</v>
+        <v>1.265468727497094</v>
       </c>
       <c r="H2">
-        <v>0.6391888915350563</v>
+        <v>1.184471871255852</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2036858396508592</v>
+        <v>0.1994485699222608</v>
       </c>
       <c r="K2">
-        <v>2.766557161213029</v>
+        <v>1.124391946476948</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.84055386789918</v>
+        <v>1.707544937395062</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2365424299593997</v>
+        <v>0.1329632149027731</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1088982282892488</v>
+        <v>0.1325294824970484</v>
       </c>
       <c r="E3">
-        <v>0.1322526504414121</v>
+        <v>0.1484496169491365</v>
       </c>
       <c r="F3">
-        <v>1.250635284283092</v>
+        <v>1.909255574359747</v>
       </c>
       <c r="G3">
-        <v>0.9299253766707238</v>
+        <v>1.256115846258211</v>
       </c>
       <c r="H3">
-        <v>0.6111300178015</v>
+        <v>1.185978054678841</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1816250066873621</v>
+        <v>0.1951129908603804</v>
       </c>
       <c r="K3">
-        <v>2.395502595815515</v>
+        <v>1.023407134790062</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8920796409011138</v>
+        <v>1.728115892529334</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2158048793115626</v>
+        <v>0.127255543272085</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1003388499798206</v>
+        <v>0.1306409127408301</v>
       </c>
       <c r="E4">
-        <v>0.1223477795423662</v>
+        <v>0.1464543052680902</v>
       </c>
       <c r="F4">
-        <v>1.193195186438643</v>
+        <v>1.904108472138518</v>
       </c>
       <c r="G4">
-        <v>0.8842648507364004</v>
+        <v>1.251236117740234</v>
       </c>
       <c r="H4">
-        <v>0.5952084531859896</v>
+        <v>1.187515970769397</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1683954695531114</v>
+        <v>0.1925691845663735</v>
       </c>
       <c r="K4">
-        <v>2.169429987502383</v>
+        <v>0.9617477853782646</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9250660568800595</v>
+        <v>1.741381535198564</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.207391296591183</v>
+        <v>0.1249474987936736</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09687132705897028</v>
+        <v>0.1298843885376471</v>
       </c>
       <c r="E5">
-        <v>0.1183529841026036</v>
+        <v>0.1456608338512915</v>
       </c>
       <c r="F5">
-        <v>1.1704261349918</v>
+        <v>1.902297863419875</v>
       </c>
       <c r="G5">
-        <v>0.8661977507031366</v>
+        <v>1.249464019701819</v>
       </c>
       <c r="H5">
-        <v>0.5890281065502023</v>
+        <v>1.188296725971767</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1630764067465407</v>
+        <v>0.1915622447554099</v>
       </c>
       <c r="K5">
-        <v>2.077673896356686</v>
+        <v>0.9367082429581899</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9388382381545459</v>
+        <v>1.746946992958385</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2059963557882583</v>
+        <v>0.1245653338490911</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09629672098773767</v>
+        <v>0.1297595599648815</v>
       </c>
       <c r="E6">
-        <v>0.1176920389766316</v>
+        <v>0.1455302644152425</v>
       </c>
       <c r="F6">
-        <v>1.166682481735691</v>
+        <v>1.902014527297794</v>
       </c>
       <c r="G6">
-        <v>0.8632290676735153</v>
+        <v>1.24918281942827</v>
       </c>
       <c r="H6">
-        <v>0.5880198752442993</v>
+        <v>1.188435669778229</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1621973281270286</v>
+        <v>0.1913968343034966</v>
       </c>
       <c r="K6">
-        <v>2.062458243536241</v>
+        <v>0.9325557156461457</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9411447635842851</v>
+        <v>1.747880770379781</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2156912656446792</v>
+        <v>0.1272243435960974</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1002920057027126</v>
+        <v>0.1306306569491369</v>
       </c>
       <c r="E7">
-        <v>0.1222937416871019</v>
+        <v>0.1464435247351759</v>
       </c>
       <c r="F7">
-        <v>1.192885595330807</v>
+        <v>1.904082892663837</v>
       </c>
       <c r="G7">
-        <v>0.8840190629192364</v>
+        <v>1.251211343046776</v>
       </c>
       <c r="H7">
-        <v>0.5951238829556189</v>
+        <v>1.18752587677649</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1683234523256232</v>
+        <v>0.1925554845135622</v>
       </c>
       <c r="K7">
-        <v>2.168191123978175</v>
+        <v>0.9614097402337904</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9252504693286285</v>
+        <v>1.741455946793423</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2588096697559479</v>
+        <v>0.1391145343527569</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.118108358472881</v>
+        <v>0.1345893422090541</v>
       </c>
       <c r="E8">
-        <v>0.1429759916807214</v>
+        <v>0.1506459144505214</v>
       </c>
       <c r="F8">
-        <v>1.314252588160244</v>
+        <v>1.915729847062906</v>
       </c>
       <c r="G8">
-        <v>0.9806214220390927</v>
+        <v>1.262064391081481</v>
       </c>
       <c r="H8">
-        <v>0.6292300468111165</v>
+        <v>1.184863869710782</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1960091099804586</v>
+        <v>0.1979290830905427</v>
       </c>
       <c r="K8">
-        <v>2.638208391904186</v>
+        <v>1.089500714410491</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8580340813806302</v>
+        <v>1.714505967381674</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3448634973990039</v>
+        <v>0.162985595212831</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1538788544326621</v>
+        <v>0.1427618679804254</v>
       </c>
       <c r="E9">
-        <v>0.1851900572240552</v>
+        <v>0.1595069565112937</v>
       </c>
       <c r="F9">
-        <v>1.576469196796765</v>
+        <v>1.947659097121701</v>
       </c>
       <c r="G9">
-        <v>1.190731741974844</v>
+        <v>1.290223412604632</v>
       </c>
       <c r="H9">
-        <v>0.7074950761017362</v>
+        <v>1.184515730084371</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2531680510301868</v>
+        <v>0.2094083070025192</v>
       </c>
       <c r="K9">
-        <v>3.577377366816904</v>
+        <v>1.3434349002261</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7373786364508517</v>
+        <v>1.666698012180141</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4093003292055499</v>
+        <v>0.1808567350223029</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1808410015505899</v>
+        <v>0.1490144185243736</v>
       </c>
       <c r="E10">
-        <v>0.217535914141763</v>
+        <v>0.1663970390670713</v>
       </c>
       <c r="F10">
-        <v>1.787650083684511</v>
+        <v>1.976697465245365</v>
       </c>
       <c r="G10">
-        <v>1.361061829959198</v>
+        <v>1.315148206913051</v>
       </c>
       <c r="H10">
-        <v>0.7734787101482823</v>
+        <v>1.187242151782357</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2974611631922244</v>
+        <v>0.2184218920943977</v>
       </c>
       <c r="K10">
-        <v>4.283459342056688</v>
+        <v>1.531703051563397</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6562031218092788</v>
+        <v>1.634648814541492</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4389495301905981</v>
+        <v>0.1890581734868562</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1932977240306428</v>
+        <v>0.1519125016754685</v>
       </c>
       <c r="E11">
-        <v>0.232619473023405</v>
+        <v>0.1696144561886328</v>
       </c>
       <c r="F11">
-        <v>1.888678268446014</v>
+        <v>1.991128201505902</v>
       </c>
       <c r="G11">
-        <v>1.442847562432547</v>
+        <v>1.327416941880983</v>
       </c>
       <c r="H11">
-        <v>0.805720739019705</v>
+        <v>1.189132815806516</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3182467880713773</v>
+        <v>0.2226496302155283</v>
       </c>
       <c r="K11">
-        <v>4.60951625450042</v>
+        <v>1.617728110633038</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6210604319915074</v>
+        <v>1.620737093653511</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4502316469919947</v>
+        <v>0.1921740431186976</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1980462211564173</v>
+        <v>0.1530176243370249</v>
       </c>
       <c r="E12">
-        <v>0.2383916546148015</v>
+        <v>0.1708447741622763</v>
       </c>
       <c r="F12">
-        <v>1.927734893558153</v>
+        <v>1.996768943000149</v>
       </c>
       <c r="G12">
-        <v>1.474513540025384</v>
+        <v>1.332197297956156</v>
       </c>
       <c r="H12">
-        <v>0.8182855693305555</v>
+        <v>1.189942487777273</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.326221920281327</v>
+        <v>0.2242689705043546</v>
       </c>
       <c r="K12">
-        <v>4.733808771588428</v>
+        <v>1.650358498295134</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6080247764203586</v>
+        <v>1.615565184351899</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4477993085559007</v>
+        <v>0.1915025353500681</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.197022084838224</v>
+        <v>0.1527792755560853</v>
       </c>
       <c r="E13">
-        <v>0.2371457037294604</v>
+        <v>0.1705792715296468</v>
       </c>
       <c r="F13">
-        <v>1.919286330617282</v>
+        <v>1.995546265899108</v>
       </c>
       <c r="G13">
-        <v>1.467661463743553</v>
+        <v>1.331161772157571</v>
       </c>
       <c r="H13">
-        <v>0.8155630956481161</v>
+        <v>1.189763939184246</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3244994908940129</v>
+        <v>0.2239193977490856</v>
       </c>
       <c r="K13">
-        <v>4.707001497261615</v>
+        <v>1.643328536967829</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6108198729594583</v>
+        <v>1.616674768416205</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4398765850300776</v>
+        <v>0.1893143151785068</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1936877327974997</v>
+        <v>0.1520032671185305</v>
       </c>
       <c r="E14">
-        <v>0.2330930998464069</v>
+        <v>0.1697154356260455</v>
       </c>
       <c r="F14">
-        <v>1.891874934287912</v>
+        <v>1.991588735518505</v>
       </c>
       <c r="G14">
-        <v>1.445438334151021</v>
+        <v>1.327807526150679</v>
       </c>
       <c r="H14">
-        <v>0.8067471151693439</v>
+        <v>1.189197548638589</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.318900744901697</v>
+        <v>0.2227824854204385</v>
       </c>
       <c r="K14">
-        <v>4.619724650348928</v>
+        <v>1.620411539885311</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6199824330750543</v>
+        <v>1.620309669522644</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4350309921120044</v>
+        <v>0.1879752859797463</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1916495572367722</v>
+        <v>0.1515289384202987</v>
       </c>
       <c r="E15">
-        <v>0.2306188523287531</v>
+        <v>0.1691878678320649</v>
       </c>
       <c r="F15">
-        <v>1.875191476762836</v>
+        <v>1.989187588316369</v>
       </c>
       <c r="G15">
-        <v>1.431919015800958</v>
+        <v>1.325770483364096</v>
       </c>
       <c r="H15">
-        <v>0.8013944784464684</v>
+        <v>1.188862828739786</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3154852980719483</v>
+        <v>0.222088490369174</v>
       </c>
       <c r="K15">
-        <v>4.566375974028176</v>
+        <v>1.606381317271314</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6256306886702729</v>
+        <v>1.622548678612129</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4073699768985932</v>
+        <v>0.1803221824395678</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1800311012333538</v>
+        <v>0.148826099601763</v>
       </c>
       <c r="E16">
-        <v>0.2165582034342819</v>
+        <v>0.1661884455313754</v>
       </c>
       <c r="F16">
-        <v>1.78115464361467</v>
+        <v>1.975779000051475</v>
       </c>
       <c r="G16">
-        <v>1.355809901655817</v>
+        <v>1.31436519411281</v>
       </c>
       <c r="H16">
-        <v>0.7714193520124013</v>
+        <v>1.187131696479611</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2961166247385449</v>
+        <v>0.2181481689449782</v>
       </c>
       <c r="K16">
-        <v>4.262258749235627</v>
+        <v>1.526088758534968</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.658536981150494</v>
+        <v>1.635571425542799</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3904913142225155</v>
+        <v>0.1756455208371648</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1729552406575436</v>
+        <v>0.1471817306381809</v>
       </c>
       <c r="E17">
-        <v>0.2080319755034594</v>
+        <v>0.164369679978293</v>
       </c>
       <c r="F17">
-        <v>1.724795288338285</v>
+        <v>1.967866392508128</v>
       </c>
       <c r="G17">
-        <v>1.310273538527753</v>
+        <v>1.307607173631197</v>
       </c>
       <c r="H17">
-        <v>0.753624745218815</v>
+        <v>1.186236421542333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2844061198196641</v>
+        <v>0.2157635894470076</v>
       </c>
       <c r="K17">
-        <v>4.07702048957924</v>
+        <v>1.476929285531469</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6791915670042306</v>
+        <v>1.643731560953127</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3808144340140274</v>
+        <v>0.172962393260164</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1689031655563724</v>
+        <v>0.1462409968316791</v>
       </c>
       <c r="E18">
-        <v>0.2031621963421415</v>
+        <v>0.1633313940934471</v>
       </c>
       <c r="F18">
-        <v>1.692840189060107</v>
+        <v>1.963430166324002</v>
       </c>
       <c r="G18">
-        <v>1.284482086865154</v>
+        <v>1.303807664620336</v>
       </c>
       <c r="H18">
-        <v>0.7435969350028415</v>
+        <v>1.185782690212733</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2777296322583851</v>
+        <v>0.2144040311288791</v>
       </c>
       <c r="K18">
-        <v>3.970925366616484</v>
+        <v>1.448689924121481</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6912384909169704</v>
+        <v>1.648487884997164</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3775431994057357</v>
+        <v>0.1720550989585803</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1675341431868702</v>
+        <v>0.1459233517625194</v>
       </c>
       <c r="E19">
-        <v>0.2015190508765414</v>
+        <v>0.1629811912874786</v>
       </c>
       <c r="F19">
-        <v>1.682097487689319</v>
+        <v>1.961947853249939</v>
       </c>
       <c r="G19">
-        <v>1.275816001159683</v>
+        <v>1.302536228337914</v>
       </c>
       <c r="H19">
-        <v>0.7402362517353538</v>
+        <v>1.185639571190706</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2754788742826122</v>
+        <v>0.2139457651291394</v>
       </c>
       <c r="K19">
-        <v>3.935076944518187</v>
+        <v>1.439134728464865</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6953455967322535</v>
+        <v>1.650109081079307</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3922847958105962</v>
+        <v>0.1761426604878977</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1737066118480044</v>
+        <v>0.1473562528103685</v>
       </c>
       <c r="E20">
-        <v>0.2089360086551508</v>
+        <v>0.1645624813096163</v>
       </c>
       <c r="F20">
-        <v>1.730746497748697</v>
+        <v>1.968696807762171</v>
       </c>
       <c r="G20">
-        <v>1.315079045436477</v>
+        <v>1.308317513006955</v>
       </c>
       <c r="H20">
-        <v>0.7554973242189646</v>
+        <v>1.186325388993538</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2856465211096264</v>
+        <v>0.216016190743531</v>
       </c>
       <c r="K20">
-        <v>4.096692092342835</v>
+        <v>1.482158684808326</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6769754642648538</v>
+        <v>1.642856396827974</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4422021470663964</v>
+        <v>0.1899567739224324</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1946662277305364</v>
+        <v>0.1522309915322921</v>
       </c>
       <c r="E21">
-        <v>0.2342817480127479</v>
+        <v>0.1699688407594806</v>
       </c>
       <c r="F21">
-        <v>1.899903899777101</v>
+        <v>1.992746373447872</v>
       </c>
       <c r="G21">
-        <v>1.4519462784545</v>
+        <v>1.328789095118964</v>
       </c>
       <c r="H21">
-        <v>0.8093266346181451</v>
+        <v>1.189361366232163</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3205423015993318</v>
+        <v>0.2231159245673382</v>
       </c>
       <c r="K21">
-        <v>4.645336622960372</v>
+        <v>1.627141338214301</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.617283651007166</v>
+        <v>1.619239400015084</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.475147552278969</v>
+        <v>0.19904425963189</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2085496876368467</v>
+        <v>0.1554616656601411</v>
       </c>
       <c r="E22">
-        <v>0.2512024234626935</v>
+        <v>0.1735718767357071</v>
       </c>
       <c r="F22">
-        <v>2.015164256576185</v>
+        <v>2.009491064106058</v>
       </c>
       <c r="G22">
-        <v>1.545492341594581</v>
+        <v>1.342952465172147</v>
       </c>
       <c r="H22">
-        <v>0.8465983054058484</v>
+        <v>1.191891907602582</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3439620718735625</v>
+        <v>0.2278632192894037</v>
       </c>
       <c r="K22">
-        <v>5.008764801290397</v>
+        <v>1.72221383771415</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5798659876337191</v>
+        <v>1.60436488169038</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4575323704717817</v>
+        <v>0.1941887359326557</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2011215039794081</v>
+        <v>0.1537333158218672</v>
       </c>
       <c r="E23">
-        <v>0.242136391757974</v>
+        <v>0.1716424923898998</v>
       </c>
       <c r="F23">
-        <v>1.953186241861161</v>
+        <v>2.000459961491984</v>
       </c>
       <c r="G23">
-        <v>1.495162805147544</v>
+        <v>1.33532124743607</v>
       </c>
       <c r="H23">
-        <v>0.8265017066582629</v>
+        <v>1.190491254354413</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3314018889681165</v>
+        <v>0.2253196672293996</v>
       </c>
       <c r="K23">
-        <v>4.81430764331202</v>
+        <v>1.671442830107367</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5996850998500207</v>
+        <v>1.612252349048864</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3914738794988892</v>
+        <v>0.1759178863603523</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.173366867597764</v>
+        <v>0.1472773368936515</v>
       </c>
       <c r="E24">
-        <v>0.2085271959387782</v>
+        <v>0.1644752929455677</v>
       </c>
       <c r="F24">
-        <v>1.728054571173757</v>
+        <v>1.968321025572436</v>
       </c>
       <c r="G24">
-        <v>1.312905272915714</v>
+        <v>1.307996101458372</v>
       </c>
       <c r="H24">
-        <v>0.7546501029991646</v>
+        <v>1.186284976878738</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2850855620736041</v>
+        <v>0.2159019542938267</v>
       </c>
       <c r="K24">
-        <v>4.087797321438643</v>
+        <v>1.479794401508968</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6779768287079508</v>
+        <v>1.643251856201522</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3213934993526379</v>
+        <v>0.1564689939619512</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1440957869152442</v>
+        <v>0.1405072922466957</v>
       </c>
       <c r="E25">
-        <v>0.1735612308622194</v>
+        <v>0.1570432320749049</v>
       </c>
       <c r="F25">
-        <v>1.502571337251482</v>
+        <v>1.938044309231884</v>
       </c>
       <c r="G25">
-        <v>1.131349376597356</v>
+        <v>1.281864929796399</v>
       </c>
       <c r="H25">
-        <v>0.6849527314544019</v>
+        <v>1.184087089772703</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2373442065602518</v>
+        <v>0.2062014735515305</v>
       </c>
       <c r="K25">
-        <v>3.32090713845912</v>
+        <v>1.274441976903006</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7687591792158983</v>
+        <v>1.679091455372128</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1423738854105352</v>
+        <v>0.2705836023575046</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1356897205440646</v>
+        <v>0.1229861050531156</v>
       </c>
       <c r="E2">
-        <v>0.151826455498675</v>
+        <v>0.1486809606705464</v>
       </c>
       <c r="F2">
-        <v>1.919499299024324</v>
+        <v>1.348647360555816</v>
       </c>
       <c r="G2">
-        <v>1.265468727497094</v>
+        <v>1.008080423234375</v>
       </c>
       <c r="H2">
-        <v>1.184471871255852</v>
+        <v>0.6391888915350563</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1994485699222608</v>
+        <v>0.2036858396509018</v>
       </c>
       <c r="K2">
-        <v>1.124391946476948</v>
+        <v>2.766557161213171</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.707544937395062</v>
+        <v>0.840553867899108</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329632149027731</v>
+        <v>0.2365424299594139</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1325294824970484</v>
+        <v>0.1088982282893625</v>
       </c>
       <c r="E3">
-        <v>0.1484496169491365</v>
+        <v>0.1322526504414157</v>
       </c>
       <c r="F3">
-        <v>1.909255574359747</v>
+        <v>1.250635284283092</v>
       </c>
       <c r="G3">
-        <v>1.256115846258211</v>
+        <v>0.9299253766706386</v>
       </c>
       <c r="H3">
-        <v>1.185978054678841</v>
+        <v>0.6111300178015</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1951129908603804</v>
+        <v>0.1816250066874616</v>
       </c>
       <c r="K3">
-        <v>1.023407134790062</v>
+        <v>2.395502595815486</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.728115892529334</v>
+        <v>0.8920796409011662</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.127255543272085</v>
+        <v>0.2158048793115483</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1306409127408301</v>
+        <v>0.1003388499800479</v>
       </c>
       <c r="E4">
-        <v>0.1464543052680902</v>
+        <v>0.1223477795423662</v>
       </c>
       <c r="F4">
-        <v>1.904108472138518</v>
+        <v>1.193195186438629</v>
       </c>
       <c r="G4">
-        <v>1.251236117740234</v>
+        <v>0.884264850736372</v>
       </c>
       <c r="H4">
-        <v>1.187515970769397</v>
+        <v>0.5952084531858759</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1925691845663735</v>
+        <v>0.1683954695530545</v>
       </c>
       <c r="K4">
-        <v>0.9617477853782646</v>
+        <v>2.169429987502383</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.741381535198564</v>
+        <v>0.9250660568800626</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1249474987936736</v>
+        <v>0.2073912965910552</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1298843885376471</v>
+        <v>0.09687132705910528</v>
       </c>
       <c r="E5">
-        <v>0.1456608338512915</v>
+        <v>0.1183529841025859</v>
       </c>
       <c r="F5">
-        <v>1.902297863419875</v>
+        <v>1.1704261349918</v>
       </c>
       <c r="G5">
-        <v>1.249464019701819</v>
+        <v>0.8661977507031224</v>
       </c>
       <c r="H5">
-        <v>1.188296725971767</v>
+        <v>0.5890281065502165</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1915622447554099</v>
+        <v>0.1630764067466117</v>
       </c>
       <c r="K5">
-        <v>0.9367082429581899</v>
+        <v>2.077673896356657</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.746946992958385</v>
+        <v>0.9388382381545468</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1245653338490911</v>
+        <v>0.2059963557879883</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1297595599648815</v>
+        <v>0.09629672098768793</v>
       </c>
       <c r="E6">
-        <v>0.1455302644152425</v>
+        <v>0.1176920389766636</v>
       </c>
       <c r="F6">
-        <v>1.902014527297794</v>
+        <v>1.166682481735677</v>
       </c>
       <c r="G6">
-        <v>1.24918281942827</v>
+        <v>0.8632290676735153</v>
       </c>
       <c r="H6">
-        <v>1.188435669778229</v>
+        <v>0.5880198752441572</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1913968343034966</v>
+        <v>0.1621973281270357</v>
       </c>
       <c r="K6">
-        <v>0.9325557156461457</v>
+        <v>2.062458243536071</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.747880770379781</v>
+        <v>0.9411447635842802</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1272243435960974</v>
+        <v>0.2156912656446792</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1306306569491369</v>
+        <v>0.1002920057027126</v>
       </c>
       <c r="E7">
-        <v>0.1464435247351759</v>
+        <v>0.1222937416871055</v>
       </c>
       <c r="F7">
-        <v>1.904082892663837</v>
+        <v>1.192885595330793</v>
       </c>
       <c r="G7">
-        <v>1.251211343046776</v>
+        <v>0.8840190629191795</v>
       </c>
       <c r="H7">
-        <v>1.18752587677649</v>
+        <v>0.5951238829557326</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1925554845135622</v>
+        <v>0.1683234523256161</v>
       </c>
       <c r="K7">
-        <v>0.9614097402337904</v>
+        <v>2.16819112397809</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.741455946793423</v>
+        <v>0.9252504693286832</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391145343527569</v>
+        <v>0.2588096697560758</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1345893422090541</v>
+        <v>0.118108358472881</v>
       </c>
       <c r="E8">
-        <v>0.1506459144505214</v>
+        <v>0.1429759916807072</v>
       </c>
       <c r="F8">
-        <v>1.915729847062906</v>
+        <v>1.31425258816023</v>
       </c>
       <c r="G8">
-        <v>1.262064391081481</v>
+        <v>0.9806214220390927</v>
       </c>
       <c r="H8">
-        <v>1.184863869710782</v>
+        <v>0.6292300468111023</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1979290830905427</v>
+        <v>0.196009109980551</v>
       </c>
       <c r="K8">
-        <v>1.089500714410491</v>
+        <v>2.638208391904271</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.714505967381674</v>
+        <v>0.8580340813806133</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.162985595212831</v>
+        <v>0.3448634973991318</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1427618679804254</v>
+        <v>0.1538788544325485</v>
       </c>
       <c r="E9">
-        <v>0.1595069565112937</v>
+        <v>0.185190057224041</v>
       </c>
       <c r="F9">
-        <v>1.947659097121701</v>
+        <v>1.576469196796765</v>
       </c>
       <c r="G9">
-        <v>1.290223412604632</v>
+        <v>1.190731741974872</v>
       </c>
       <c r="H9">
-        <v>1.184515730084371</v>
+        <v>0.7074950761017362</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2094083070025192</v>
+        <v>0.2531680510300873</v>
       </c>
       <c r="K9">
-        <v>1.3434349002261</v>
+        <v>3.577377366816961</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.666698012180141</v>
+        <v>0.7373786364508508</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1808567350223029</v>
+        <v>0.4093003292055499</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1490144185243736</v>
+        <v>0.1808410015507462</v>
       </c>
       <c r="E10">
-        <v>0.1663970390670713</v>
+        <v>0.2175359141417772</v>
       </c>
       <c r="F10">
-        <v>1.976697465245365</v>
+        <v>1.787650083684497</v>
       </c>
       <c r="G10">
-        <v>1.315148206913051</v>
+        <v>1.361061829959169</v>
       </c>
       <c r="H10">
-        <v>1.187242151782357</v>
+        <v>0.7734787101482823</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2184218920943977</v>
+        <v>0.2974611631922528</v>
       </c>
       <c r="K10">
-        <v>1.531703051563397</v>
+        <v>4.283459342056631</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.634648814541492</v>
+        <v>0.6562031218092632</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1890581734868562</v>
+        <v>0.4389495301908397</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1519125016754685</v>
+        <v>0.1932977240304439</v>
       </c>
       <c r="E11">
-        <v>0.1696144561886328</v>
+        <v>0.2326194730233979</v>
       </c>
       <c r="F11">
-        <v>1.991128201505902</v>
+        <v>1.888678268446014</v>
       </c>
       <c r="G11">
-        <v>1.327416941880983</v>
+        <v>1.442847562432519</v>
       </c>
       <c r="H11">
-        <v>1.189132815806516</v>
+        <v>0.8057207390196766</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2226496302155283</v>
+        <v>0.3182467880712068</v>
       </c>
       <c r="K11">
-        <v>1.617728110633038</v>
+        <v>4.609516254500477</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.620737093653511</v>
+        <v>0.6210604319915025</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1921740431186976</v>
+        <v>0.4502316469920942</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1530176243370249</v>
+        <v>0.1980462211564458</v>
       </c>
       <c r="E12">
-        <v>0.1708447741622763</v>
+        <v>0.2383916546148157</v>
       </c>
       <c r="F12">
-        <v>1.996768943000149</v>
+        <v>1.927734893558139</v>
       </c>
       <c r="G12">
-        <v>1.332197297956156</v>
+        <v>1.474513540025384</v>
       </c>
       <c r="H12">
-        <v>1.189942487777273</v>
+        <v>0.8182855693305555</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2242689705043546</v>
+        <v>0.3262219202812275</v>
       </c>
       <c r="K12">
-        <v>1.650358498295134</v>
+        <v>4.733808771588372</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.615565184351899</v>
+        <v>0.6080247764203501</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1915025353500681</v>
+        <v>0.4477993085557728</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1527792755560853</v>
+        <v>0.1970220848380819</v>
       </c>
       <c r="E13">
-        <v>0.1705792715296468</v>
+        <v>0.2371457037294604</v>
       </c>
       <c r="F13">
-        <v>1.995546265899108</v>
+        <v>1.919286330617282</v>
       </c>
       <c r="G13">
-        <v>1.331161772157571</v>
+        <v>1.467661463743639</v>
       </c>
       <c r="H13">
-        <v>1.189763939184246</v>
+        <v>0.8155630956480877</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2239193977490856</v>
+        <v>0.3244994908940271</v>
       </c>
       <c r="K13">
-        <v>1.643328536967829</v>
+        <v>4.707001497261672</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.616674768416205</v>
+        <v>0.6108198729594565</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1893143151785068</v>
+        <v>0.4398765850299924</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1520032671185305</v>
+        <v>0.1936877327974997</v>
       </c>
       <c r="E14">
-        <v>0.1697154356260455</v>
+        <v>0.2330930998464069</v>
       </c>
       <c r="F14">
-        <v>1.991588735518505</v>
+        <v>1.891874934287927</v>
       </c>
       <c r="G14">
-        <v>1.327807526150679</v>
+        <v>1.445438334151135</v>
       </c>
       <c r="H14">
-        <v>1.189197548638589</v>
+        <v>0.8067471151693439</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2227824854204385</v>
+        <v>0.3189007449015833</v>
       </c>
       <c r="K14">
-        <v>1.620411539885311</v>
+        <v>4.619724650349042</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.620309669522644</v>
+        <v>0.6199824330750423</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1879752859797463</v>
+        <v>0.4350309921119901</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1515289384202987</v>
+        <v>0.1916495572368717</v>
       </c>
       <c r="E15">
-        <v>0.1691878678320649</v>
+        <v>0.2306188523287531</v>
       </c>
       <c r="F15">
-        <v>1.989187588316369</v>
+        <v>1.875191476762836</v>
       </c>
       <c r="G15">
-        <v>1.325770483364096</v>
+        <v>1.431919015800958</v>
       </c>
       <c r="H15">
-        <v>1.188862828739786</v>
+        <v>0.8013944784464968</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.222088490369174</v>
+        <v>0.3154852980718914</v>
       </c>
       <c r="K15">
-        <v>1.606381317271314</v>
+        <v>4.566375974028233</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.622548678612129</v>
+        <v>0.6256306886702641</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1803221824395678</v>
+        <v>0.4073699768985932</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.148826099601763</v>
+        <v>0.1800311012333538</v>
       </c>
       <c r="E16">
-        <v>0.1661884455313754</v>
+        <v>0.216558203434289</v>
       </c>
       <c r="F16">
-        <v>1.975779000051475</v>
+        <v>1.781154643614656</v>
       </c>
       <c r="G16">
-        <v>1.31436519411281</v>
+        <v>1.355809901655817</v>
       </c>
       <c r="H16">
-        <v>1.187131696479611</v>
+        <v>0.7714193520124013</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2181481689449782</v>
+        <v>0.2961166247385023</v>
       </c>
       <c r="K16">
-        <v>1.526088758534968</v>
+        <v>4.262258749235571</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.635571425542799</v>
+        <v>0.6585369811505348</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1756455208371648</v>
+        <v>0.3904913142225155</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1471817306381809</v>
+        <v>0.1729552406575579</v>
       </c>
       <c r="E17">
-        <v>0.164369679978293</v>
+        <v>0.2080319755034523</v>
       </c>
       <c r="F17">
-        <v>1.967866392508128</v>
+        <v>1.724795288338314</v>
       </c>
       <c r="G17">
-        <v>1.307607173631197</v>
+        <v>1.310273538527809</v>
       </c>
       <c r="H17">
-        <v>1.186236421542333</v>
+        <v>0.753624745218815</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2157635894470076</v>
+        <v>0.2844061198196783</v>
       </c>
       <c r="K17">
-        <v>1.476929285531469</v>
+        <v>4.077020489579297</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.643731560953127</v>
+        <v>0.6791915670041928</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.172962393260164</v>
+        <v>0.3808144340142121</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1462409968316791</v>
+        <v>0.1689031655563156</v>
       </c>
       <c r="E18">
-        <v>0.1633313940934471</v>
+        <v>0.2031621963421628</v>
       </c>
       <c r="F18">
-        <v>1.963430166324002</v>
+        <v>1.692840189060107</v>
       </c>
       <c r="G18">
-        <v>1.303807664620336</v>
+        <v>1.284482086865182</v>
       </c>
       <c r="H18">
-        <v>1.185782690212733</v>
+        <v>0.7435969350028415</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2144040311288791</v>
+        <v>0.2777296322583283</v>
       </c>
       <c r="K18">
-        <v>1.448689924121481</v>
+        <v>3.970925366616427</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.648487884997164</v>
+        <v>0.6912384909169731</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1720550989585803</v>
+        <v>0.3775431994058494</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1459233517625194</v>
+        <v>0.1675341431867707</v>
       </c>
       <c r="E19">
-        <v>0.1629811912874786</v>
+        <v>0.2015190508765414</v>
       </c>
       <c r="F19">
-        <v>1.961947853249939</v>
+        <v>1.682097487689305</v>
       </c>
       <c r="G19">
-        <v>1.302536228337914</v>
+        <v>1.275816001159654</v>
       </c>
       <c r="H19">
-        <v>1.185639571190706</v>
+        <v>0.7402362517353538</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2139457651291394</v>
+        <v>0.275478874282598</v>
       </c>
       <c r="K19">
-        <v>1.439134728464865</v>
+        <v>3.935076944518357</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.650109081079307</v>
+        <v>0.6953455967322002</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1761426604878977</v>
+        <v>0.3922847958107099</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1473562528103685</v>
+        <v>0.1737066118480328</v>
       </c>
       <c r="E20">
-        <v>0.1645624813096163</v>
+        <v>0.2089360086551721</v>
       </c>
       <c r="F20">
-        <v>1.968696807762171</v>
+        <v>1.730746497748697</v>
       </c>
       <c r="G20">
-        <v>1.308317513006955</v>
+        <v>1.315079045436562</v>
       </c>
       <c r="H20">
-        <v>1.186325388993538</v>
+        <v>0.7554973242189646</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.216016190743531</v>
+        <v>0.2856465211097117</v>
       </c>
       <c r="K20">
-        <v>1.482158684808326</v>
+        <v>4.096692092342721</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.642856396827974</v>
+        <v>0.6769754642648502</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1899567739224324</v>
+        <v>0.4422021470665385</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1522309915322921</v>
+        <v>0.1946662277306359</v>
       </c>
       <c r="E21">
-        <v>0.1699688407594806</v>
+        <v>0.2342817480127408</v>
       </c>
       <c r="F21">
-        <v>1.992746373447872</v>
+        <v>1.899903899777087</v>
       </c>
       <c r="G21">
-        <v>1.328789095118964</v>
+        <v>1.451946278454443</v>
       </c>
       <c r="H21">
-        <v>1.189361366232163</v>
+        <v>0.8093266346180314</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2231159245673382</v>
+        <v>0.3205423015993603</v>
       </c>
       <c r="K21">
-        <v>1.627141338214301</v>
+        <v>4.645336622960258</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.619239400015084</v>
+        <v>0.6172836510071567</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.19904425963189</v>
+        <v>0.4751475522788269</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1554616656601411</v>
+        <v>0.2085496876368325</v>
       </c>
       <c r="E22">
-        <v>0.1735718767357071</v>
+        <v>0.2512024234627006</v>
       </c>
       <c r="F22">
-        <v>2.009491064106058</v>
+        <v>2.015164256576185</v>
       </c>
       <c r="G22">
-        <v>1.342952465172147</v>
+        <v>1.545492341594496</v>
       </c>
       <c r="H22">
-        <v>1.191891907602582</v>
+        <v>0.8465983054058484</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2278632192894037</v>
+        <v>0.3439620718735625</v>
       </c>
       <c r="K22">
-        <v>1.72221383771415</v>
+        <v>5.00876480129034</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.60436488169038</v>
+        <v>0.5798659876337866</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1941887359326557</v>
+        <v>0.4575323704718244</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1537333158218672</v>
+        <v>0.2011215039794081</v>
       </c>
       <c r="E23">
-        <v>0.1716424923898998</v>
+        <v>0.2421363917579527</v>
       </c>
       <c r="F23">
-        <v>2.000459961491984</v>
+        <v>1.953186241861133</v>
       </c>
       <c r="G23">
-        <v>1.33532124743607</v>
+        <v>1.495162805147544</v>
       </c>
       <c r="H23">
-        <v>1.190491254354413</v>
+        <v>0.8265017066582629</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2253196672293996</v>
+        <v>0.3314018889681449</v>
       </c>
       <c r="K23">
-        <v>1.671442830107367</v>
+        <v>4.81430764331202</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.612252349048864</v>
+        <v>0.5996850998500847</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1759178863603523</v>
+        <v>0.3914738794988182</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1472773368936515</v>
+        <v>0.1733668675977498</v>
       </c>
       <c r="E24">
-        <v>0.1644752929455677</v>
+        <v>0.2085271959387498</v>
       </c>
       <c r="F24">
-        <v>1.968321025572436</v>
+        <v>1.728054571173757</v>
       </c>
       <c r="G24">
-        <v>1.307996101458372</v>
+        <v>1.312905272915685</v>
       </c>
       <c r="H24">
-        <v>1.186284976878738</v>
+        <v>0.7546501029991646</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2159019542938267</v>
+        <v>0.285085562073732</v>
       </c>
       <c r="K24">
-        <v>1.479794401508968</v>
+        <v>4.087797321438586</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.643251856201522</v>
+        <v>0.6779768287080103</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1564689939619512</v>
+        <v>0.3213934993527658</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1405072922466957</v>
+        <v>0.1440957869151589</v>
       </c>
       <c r="E25">
-        <v>0.1570432320749049</v>
+        <v>0.1735612308622123</v>
       </c>
       <c r="F25">
-        <v>1.938044309231884</v>
+        <v>1.502571337251482</v>
       </c>
       <c r="G25">
-        <v>1.281864929796399</v>
+        <v>1.131349376597356</v>
       </c>
       <c r="H25">
-        <v>1.184087089772703</v>
+        <v>0.6849527314543735</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2062014735515305</v>
+        <v>0.2373442065602802</v>
       </c>
       <c r="K25">
-        <v>1.274441976903006</v>
+        <v>3.320907138459063</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.679091455372128</v>
+        <v>0.7687591792158894</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2705836023575046</v>
+        <v>3.357594067635716</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1229861050531156</v>
+        <v>0.1215312575709255</v>
       </c>
       <c r="E2">
-        <v>0.1486809606705464</v>
+        <v>0.2389026503434479</v>
       </c>
       <c r="F2">
-        <v>1.348647360555816</v>
+        <v>0.3705276033114018</v>
       </c>
       <c r="G2">
-        <v>1.008080423234375</v>
+        <v>0.3023056235340107</v>
       </c>
       <c r="H2">
-        <v>0.6391888915350563</v>
+        <v>0.0003764304256093642</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01472907520090461</v>
       </c>
       <c r="J2">
-        <v>0.2036858396509018</v>
+        <v>0.2311176930718943</v>
       </c>
       <c r="K2">
-        <v>2.766557161213171</v>
+        <v>0.4681177371973604</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4518749878574084</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.840553867899108</v>
+        <v>1.850632942224536</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.075536665107535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2365424299594139</v>
+        <v>2.931482904018367</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1088982282893625</v>
+        <v>0.121512421219478</v>
       </c>
       <c r="E3">
-        <v>0.1322526504414157</v>
+        <v>0.224098083715738</v>
       </c>
       <c r="F3">
-        <v>1.250635284283092</v>
+        <v>0.3594688103380363</v>
       </c>
       <c r="G3">
-        <v>0.9299253766706386</v>
+        <v>0.2753075346131766</v>
       </c>
       <c r="H3">
-        <v>0.6111300178015</v>
+        <v>0.001094092301325678</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01749358725951788</v>
       </c>
       <c r="J3">
-        <v>0.1816250066874616</v>
+        <v>0.2234043723563275</v>
       </c>
       <c r="K3">
-        <v>2.395502595815486</v>
+        <v>0.4616657260883521</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4136767406808275</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8920796409011662</v>
+        <v>1.615840628617093</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.001824366934656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2158048793115483</v>
+        <v>2.669197288575276</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1003388499800479</v>
+        <v>0.1215711684847811</v>
       </c>
       <c r="E4">
-        <v>0.1223477795423662</v>
+        <v>0.2151022092001043</v>
       </c>
       <c r="F4">
-        <v>1.193195186438629</v>
+        <v>0.3533883140495888</v>
       </c>
       <c r="G4">
-        <v>0.884264850736372</v>
+        <v>0.2592533812196578</v>
       </c>
       <c r="H4">
-        <v>0.5952084531858759</v>
+        <v>0.001741680825342345</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01938904786444784</v>
       </c>
       <c r="J4">
-        <v>0.1683954695530545</v>
+        <v>0.2190260227432432</v>
       </c>
       <c r="K4">
-        <v>2.169429987502383</v>
+        <v>0.4587759134486795</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.390384850345896</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9250660568800626</v>
+        <v>1.472308274183121</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.9584124874296833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2073912965910552</v>
+        <v>2.562140985435349</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09687132705910528</v>
+        <v>0.121647960984216</v>
       </c>
       <c r="E5">
-        <v>0.1183529841025859</v>
+        <v>0.2117496036157576</v>
       </c>
       <c r="F5">
-        <v>1.1704261349918</v>
+        <v>0.3506432744658667</v>
       </c>
       <c r="G5">
-        <v>0.8661977507031224</v>
+        <v>0.2525175849587882</v>
       </c>
       <c r="H5">
-        <v>0.5890281065502165</v>
+        <v>0.00205428938472807</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02029606161443631</v>
       </c>
       <c r="J5">
-        <v>0.1630764067466117</v>
+        <v>0.2171580063110454</v>
       </c>
       <c r="K5">
-        <v>2.077673896356657</v>
+        <v>0.4586717721490103</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3815917191659111</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9388382381545468</v>
+        <v>1.416484350729576</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.9401337458490246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2059963557879883</v>
+        <v>2.544354971911048</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09629672098768793</v>
+        <v>0.121705530750436</v>
       </c>
       <c r="E6">
-        <v>0.1176920389766636</v>
+        <v>0.2115509871425303</v>
       </c>
       <c r="F6">
-        <v>1.166682481735677</v>
+        <v>0.3496635184799075</v>
       </c>
       <c r="G6">
-        <v>0.8632290676735153</v>
+        <v>0.2510202602389953</v>
       </c>
       <c r="H6">
-        <v>0.5880198752441572</v>
+        <v>0.002108695595183729</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02056322343378003</v>
       </c>
       <c r="J6">
-        <v>0.1621973281270357</v>
+        <v>0.2166455396894733</v>
       </c>
       <c r="K6">
-        <v>2.062458243536071</v>
+        <v>0.4596712563943512</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3809437435861156</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9411447635842802</v>
+        <v>1.410313601846781</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.9358720018655902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2156912656446792</v>
+        <v>2.66775641601339</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1002920057027126</v>
+        <v>0.1216940490254288</v>
       </c>
       <c r="E7">
-        <v>0.1222937416871055</v>
+        <v>0.2160357630038305</v>
       </c>
       <c r="F7">
-        <v>1.192885595330793</v>
+        <v>0.3518956521262311</v>
       </c>
       <c r="G7">
-        <v>0.8840190629191795</v>
+        <v>0.2581088969789107</v>
       </c>
       <c r="H7">
-        <v>0.5951238829557326</v>
+        <v>0.001744660965958267</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01969496066308896</v>
       </c>
       <c r="J7">
-        <v>0.1683234523256161</v>
+        <v>0.2184355531312221</v>
       </c>
       <c r="K7">
-        <v>2.16819112397809</v>
+        <v>0.461528372724139</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3924856092953064</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9252504693286832</v>
+        <v>1.480009182378581</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.9547494727334112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2588096697560758</v>
+        <v>3.210796741196987</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.118108358472881</v>
+        <v>0.121682777429676</v>
       </c>
       <c r="E8">
-        <v>0.1429759916807072</v>
+        <v>0.2350966748591361</v>
       </c>
       <c r="F8">
-        <v>1.31425258816023</v>
+        <v>0.3646537414919067</v>
       </c>
       <c r="G8">
-        <v>0.9806214220390927</v>
+        <v>0.2914947050551504</v>
       </c>
       <c r="H8">
-        <v>0.6292300468111023</v>
+        <v>0.000577962601079729</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01599271937494962</v>
       </c>
       <c r="J8">
-        <v>0.196009109980551</v>
+        <v>0.2276402639407706</v>
       </c>
       <c r="K8">
-        <v>2.638208391904271</v>
+        <v>0.4694179662098321</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4416468484108407</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8580340813806133</v>
+        <v>1.78080260811106</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.045227125758316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3448634973991318</v>
+        <v>4.271104053420629</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1538788544325485</v>
+        <v>0.121988886842324</v>
       </c>
       <c r="E9">
-        <v>0.185190057224041</v>
+        <v>0.2714697085892865</v>
       </c>
       <c r="F9">
-        <v>1.576469196796765</v>
+        <v>0.3982926962134741</v>
       </c>
       <c r="G9">
-        <v>1.190731741974872</v>
+        <v>0.3634362295879328</v>
       </c>
       <c r="H9">
-        <v>0.7074950761017362</v>
+        <v>7.540346847900725E-05</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.009968852173026121</v>
       </c>
       <c r="J9">
-        <v>0.2531680510300873</v>
+        <v>0.2497274739628921</v>
       </c>
       <c r="K9">
-        <v>3.577377366816961</v>
+        <v>0.4887169087190628</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5353909105883616</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7373786364508508</v>
+        <v>2.3610499355363</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.244750945268663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4093003292055499</v>
+        <v>5.04815569322534</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1808410015507462</v>
+        <v>0.1238592850290132</v>
       </c>
       <c r="E10">
-        <v>0.2175359141417772</v>
+        <v>0.3059625117672056</v>
       </c>
       <c r="F10">
-        <v>1.787650083684497</v>
+        <v>0.4186167391664242</v>
       </c>
       <c r="G10">
-        <v>1.361061829959169</v>
+        <v>0.4131673166528032</v>
       </c>
       <c r="H10">
-        <v>0.7734787101482823</v>
+        <v>0.001129002040643368</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.006910058283687626</v>
       </c>
       <c r="J10">
-        <v>0.2974611631922528</v>
+        <v>0.2647248722101381</v>
       </c>
       <c r="K10">
-        <v>4.283459342056631</v>
+        <v>0.5199650971981669</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.6210634759472384</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6562031218092632</v>
+        <v>2.782007040399549</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.382099358821876</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4389495301908397</v>
+        <v>5.400553884540443</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1932977240304439</v>
+        <v>0.1382252026776953</v>
       </c>
       <c r="E11">
-        <v>0.2326194730233979</v>
+        <v>0.3894886034582115</v>
       </c>
       <c r="F11">
-        <v>1.888678268446014</v>
+        <v>0.3598704160749264</v>
       </c>
       <c r="G11">
-        <v>1.442847562432519</v>
+        <v>0.3832463981801766</v>
       </c>
       <c r="H11">
-        <v>0.8057207390196766</v>
+        <v>0.01993067226482381</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.006496539406496638</v>
       </c>
       <c r="J11">
-        <v>0.3182467880712068</v>
+        <v>0.244628778147657</v>
       </c>
       <c r="K11">
-        <v>4.609516254500477</v>
+        <v>0.6334463894153401</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.8062767351634648</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6210604319915025</v>
+        <v>2.864754843350113</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.27683180927761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4502316469920942</v>
+        <v>5.533670195830837</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1980462211564458</v>
+        <v>0.1530041210895945</v>
       </c>
       <c r="E12">
-        <v>0.2383916546148157</v>
+        <v>0.4608190750687697</v>
       </c>
       <c r="F12">
-        <v>1.927734893558139</v>
+        <v>0.3107152085253801</v>
       </c>
       <c r="G12">
-        <v>1.474513540025384</v>
+        <v>0.3498173451454818</v>
       </c>
       <c r="H12">
-        <v>0.8182855693305555</v>
+        <v>0.0586366542775778</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.006210390231873752</v>
       </c>
       <c r="J12">
-        <v>0.3262219202812275</v>
+        <v>0.2255187661139644</v>
       </c>
       <c r="K12">
-        <v>4.733808771588372</v>
+        <v>0.7296544897619057</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.9598176131210323</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6080247764203501</v>
+        <v>2.829183451056906</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.166051203817858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4477993085557728</v>
+        <v>5.504434284001206</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1970220848380819</v>
+        <v>0.1689201545004906</v>
       </c>
       <c r="E13">
-        <v>0.2371457037294604</v>
+        <v>0.5276351057778541</v>
       </c>
       <c r="F13">
-        <v>1.919286330617282</v>
+        <v>0.2636211208183283</v>
       </c>
       <c r="G13">
-        <v>1.467661463743639</v>
+        <v>0.3099329569666907</v>
       </c>
       <c r="H13">
-        <v>0.8155630956480877</v>
+        <v>0.1142241939272708</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.006378215542802046</v>
       </c>
       <c r="J13">
-        <v>0.3244994908940271</v>
+        <v>0.205070425207154</v>
       </c>
       <c r="K13">
-        <v>4.707001497261672</v>
+        <v>0.8209522618118754</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.099725116440453</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6108198729594565</v>
+        <v>2.714187906974416</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.038681852324231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4398765850299924</v>
+        <v>5.410325702976479</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1936877327974997</v>
+        <v>0.180959734239849</v>
       </c>
       <c r="E14">
-        <v>0.2330930998464069</v>
+        <v>0.5735358734827187</v>
       </c>
       <c r="F14">
-        <v>1.891874934287927</v>
+        <v>0.2318775795985317</v>
       </c>
       <c r="G14">
-        <v>1.445438334151135</v>
+        <v>0.2791892376406651</v>
       </c>
       <c r="H14">
-        <v>0.8067471151693439</v>
+        <v>0.1633836403408537</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.006795756722477009</v>
       </c>
       <c r="J14">
-        <v>0.3189007449015833</v>
+        <v>0.1901602711886312</v>
       </c>
       <c r="K14">
-        <v>4.619724650349042</v>
+        <v>0.884616881481918</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.193788437703944</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6199824330750423</v>
+        <v>2.600689516343124</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.9422402308090341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4350309921119901</v>
+        <v>5.352775503265661</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1916495572368717</v>
+        <v>0.1838229564043559</v>
       </c>
       <c r="E15">
-        <v>0.2306188523287531</v>
+        <v>0.5830013838462946</v>
       </c>
       <c r="F15">
-        <v>1.875191476762836</v>
+        <v>0.2238924944703413</v>
       </c>
       <c r="G15">
-        <v>1.431919015800958</v>
+        <v>0.2699398254031422</v>
       </c>
       <c r="H15">
-        <v>0.8013944784464968</v>
+        <v>0.1757884663131648</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.007133217583073836</v>
       </c>
       <c r="J15">
-        <v>0.3154852980718914</v>
+        <v>0.186056952966112</v>
       </c>
       <c r="K15">
-        <v>4.566375974028233</v>
+        <v>0.8991247861301872</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.212417498360395</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6256306886702641</v>
+        <v>2.55997012172071</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.9140063176921842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4073699768985932</v>
+        <v>5.023209316184023</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1800311012333538</v>
+        <v>0.179196471054027</v>
       </c>
       <c r="E16">
-        <v>0.216558203434289</v>
+        <v>0.5529093182838878</v>
       </c>
       <c r="F16">
-        <v>1.781154643614656</v>
+        <v>0.2236092569287855</v>
       </c>
       <c r="G16">
-        <v>1.355809901655817</v>
+        <v>0.2559130013491071</v>
       </c>
       <c r="H16">
-        <v>0.7714193520124013</v>
+        <v>0.1624427445756709</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.0084633953799651</v>
       </c>
       <c r="J16">
-        <v>0.2961166247385023</v>
+        <v>0.1832414482250044</v>
       </c>
       <c r="K16">
-        <v>4.262258749235571</v>
+        <v>0.86386666777328</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.14384516205223</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6585369811505348</v>
+        <v>2.409678043723829</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.8781528913903145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3904913142225155</v>
+        <v>4.821092611635436</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1729552406575579</v>
+        <v>0.1691083478466595</v>
       </c>
       <c r="E17">
-        <v>0.2080319755034523</v>
+        <v>0.5051124575035715</v>
       </c>
       <c r="F17">
-        <v>1.724795288338314</v>
+        <v>0.2400856950272257</v>
       </c>
       <c r="G17">
-        <v>1.310273538527809</v>
+        <v>0.2614605628321982</v>
       </c>
       <c r="H17">
-        <v>0.753624745218815</v>
+        <v>0.1243563297591663</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.009319449681307823</v>
       </c>
       <c r="J17">
-        <v>0.2844061198196783</v>
+        <v>0.1890293649970189</v>
       </c>
       <c r="K17">
-        <v>4.077020489579297</v>
+        <v>0.8031768183497192</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.040697568609488</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6791915670041928</v>
+        <v>2.355019777348929</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.9018869621237684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3808144340142121</v>
+        <v>4.704994141656869</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1689031655563156</v>
+        <v>0.1543666704025313</v>
       </c>
       <c r="E18">
-        <v>0.2031621963421628</v>
+        <v>0.4396003700761071</v>
       </c>
       <c r="F18">
-        <v>1.692840189060107</v>
+        <v>0.2751206459367879</v>
       </c>
       <c r="G18">
-        <v>1.284482086865182</v>
+        <v>0.2856320877326084</v>
       </c>
       <c r="H18">
-        <v>0.7435969350028415</v>
+        <v>0.07144461942950642</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.00946643366601041</v>
       </c>
       <c r="J18">
-        <v>0.2777296322583283</v>
+        <v>0.2033953148435756</v>
       </c>
       <c r="K18">
-        <v>3.970925366616427</v>
+        <v>0.715054200010357</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.9015048569250439</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6912384909169731</v>
+        <v>2.368395077615389</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9831169043766295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3775431994058494</v>
+        <v>4.665990428665395</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1675341431867707</v>
+        <v>0.1397303396568574</v>
       </c>
       <c r="E19">
-        <v>0.2015190508765414</v>
+        <v>0.3735606473767845</v>
       </c>
       <c r="F19">
-        <v>1.682097487689305</v>
+        <v>0.3229172630563824</v>
       </c>
       <c r="G19">
-        <v>1.275816001159654</v>
+        <v>0.3224254975626053</v>
       </c>
       <c r="H19">
-        <v>0.7402362517353538</v>
+        <v>0.02630553838658756</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.009565728191105016</v>
       </c>
       <c r="J19">
-        <v>0.275478874282598</v>
+        <v>0.2231174624654955</v>
       </c>
       <c r="K19">
-        <v>3.935076944518357</v>
+        <v>0.626589182271367</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.7612340297729219</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6953455967322002</v>
+        <v>2.450937608171955</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.102374198922149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3922847958107099</v>
+        <v>4.844199016908874</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1737066118480328</v>
+        <v>0.1238730675737258</v>
       </c>
       <c r="E20">
-        <v>0.2089360086551721</v>
+        <v>0.300415810836526</v>
       </c>
       <c r="F20">
-        <v>1.730746497748697</v>
+        <v>0.4082663533227588</v>
       </c>
       <c r="G20">
-        <v>1.315079045436562</v>
+        <v>0.3963827344901318</v>
       </c>
       <c r="H20">
-        <v>0.7554973242189646</v>
+        <v>0.0007439648873273086</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.008498914573255689</v>
       </c>
       <c r="J20">
-        <v>0.2856465211097117</v>
+        <v>0.2587968616306426</v>
       </c>
       <c r="K20">
-        <v>4.096692092342721</v>
+        <v>0.5213043886122506</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.6064123836842867</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6769754642648502</v>
+        <v>2.697598198714047</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.333974510822799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4422021470665385</v>
+        <v>5.440254284093044</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1946662277306359</v>
+        <v>0.1234546269628751</v>
       </c>
       <c r="E21">
-        <v>0.2342817480127408</v>
+        <v>0.3159943067927458</v>
       </c>
       <c r="F21">
-        <v>1.899903899777087</v>
+        <v>0.4387209655964668</v>
       </c>
       <c r="G21">
-        <v>1.451946278454443</v>
+        <v>0.445937135919138</v>
       </c>
       <c r="H21">
-        <v>0.8093266346180314</v>
+        <v>0.001846805914365091</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.006322999660238082</v>
       </c>
       <c r="J21">
-        <v>0.3205423015993603</v>
+        <v>0.276251110172538</v>
       </c>
       <c r="K21">
-        <v>4.645336622960258</v>
+        <v>0.5308240461959741</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6482764260594251</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6172836510071567</v>
+        <v>3.03832021709195</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.475956514304357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4751475522788269</v>
+        <v>5.829767607927693</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2085496876368325</v>
+        <v>0.1236730598363991</v>
       </c>
       <c r="E22">
-        <v>0.2512024234627006</v>
+        <v>0.3283726087439263</v>
       </c>
       <c r="F22">
-        <v>2.015164256576185</v>
+        <v>0.4573514568823072</v>
       </c>
       <c r="G22">
-        <v>1.545492341594496</v>
+        <v>0.4774140416593298</v>
       </c>
       <c r="H22">
-        <v>0.8465983054058484</v>
+        <v>0.002917358864930303</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004845807395774671</v>
       </c>
       <c r="J22">
-        <v>0.3439620718735625</v>
+        <v>0.2872685361529221</v>
       </c>
       <c r="K22">
-        <v>5.00876480129034</v>
+        <v>0.5391834613448765</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.6803315348623187</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5798659876337866</v>
+        <v>3.243703235759995</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.565995988525401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4575323704718244</v>
+        <v>5.621876149343734</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2011215039794081</v>
+        <v>0.1233672620012882</v>
       </c>
       <c r="E23">
-        <v>0.2421363917579527</v>
+        <v>0.3205178898048331</v>
       </c>
       <c r="F23">
-        <v>1.953186241861133</v>
+        <v>0.448957544973851</v>
       </c>
       <c r="G23">
-        <v>1.495162805147544</v>
+        <v>0.4617428956470206</v>
       </c>
       <c r="H23">
-        <v>0.8265017066582629</v>
+        <v>0.002313662018816831</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.005279770071267897</v>
       </c>
       <c r="J23">
-        <v>0.3314018889681449</v>
+        <v>0.281981607899553</v>
       </c>
       <c r="K23">
-        <v>4.81430764331202</v>
+        <v>0.5309272602041233</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6604391171738797</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5996850998500847</v>
+        <v>3.123709703222175</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.521574556833912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3914738794988182</v>
+        <v>4.834542849524041</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1733668675977498</v>
+        <v>0.1226356727954609</v>
       </c>
       <c r="E24">
-        <v>0.2085271959387498</v>
+        <v>0.2929288853770089</v>
       </c>
       <c r="F24">
-        <v>1.728054571173757</v>
+        <v>0.4166298422882804</v>
       </c>
       <c r="G24">
-        <v>1.312905272915685</v>
+        <v>0.4022524741002513</v>
       </c>
       <c r="H24">
-        <v>0.7546501029991646</v>
+        <v>0.0006453789971694879</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.007967668155181684</v>
       </c>
       <c r="J24">
-        <v>0.285085562073732</v>
+        <v>0.2619627653192822</v>
       </c>
       <c r="K24">
-        <v>4.087797321438586</v>
+        <v>0.5080370724758296</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5898451233177298</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6779768287080103</v>
+        <v>2.687442754860257</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.353038092968347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3213934993527658</v>
+        <v>3.984651933302757</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1440957869151589</v>
+        <v>0.1221006039061265</v>
       </c>
       <c r="E25">
-        <v>0.1735612308622123</v>
+        <v>0.2633854318777651</v>
       </c>
       <c r="F25">
-        <v>1.502571337251482</v>
+        <v>0.3859121722582302</v>
       </c>
       <c r="G25">
-        <v>1.131349376597356</v>
+        <v>0.3415343034173191</v>
       </c>
       <c r="H25">
-        <v>0.6849527314543735</v>
+        <v>6.425035836699067E-09</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01189050692533922</v>
       </c>
       <c r="J25">
-        <v>0.2373442065602802</v>
+        <v>0.2423977616175819</v>
       </c>
       <c r="K25">
-        <v>3.320907138459063</v>
+        <v>0.4878197842637846</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.5140142616396588</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7687591792158894</v>
+        <v>2.218924327929642</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.182775531091238</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_37/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.357594067635716</v>
+        <v>3.360870818206763</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1215312575709255</v>
+        <v>0.1098478483578695</v>
       </c>
       <c r="E2">
-        <v>0.2389026503434479</v>
+        <v>0.2013511217007853</v>
       </c>
       <c r="F2">
-        <v>0.3705276033114018</v>
+        <v>0.4124694027335778</v>
       </c>
       <c r="G2">
-        <v>0.3023056235340107</v>
+        <v>0.3197952075327493</v>
       </c>
       <c r="H2">
-        <v>0.0003764304256093642</v>
+        <v>0.0001664911216592291</v>
       </c>
       <c r="I2">
-        <v>0.01472907520090461</v>
+        <v>0.01024602559439192</v>
       </c>
       <c r="J2">
-        <v>0.2311176930718943</v>
+        <v>0.2950165429604255</v>
       </c>
       <c r="K2">
-        <v>0.4681177371973604</v>
+        <v>0.3699307502226787</v>
       </c>
       <c r="L2">
-        <v>0.4518749878574084</v>
+        <v>0.1363697480975432</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1431587132784955</v>
       </c>
       <c r="N2">
-        <v>1.850632942224536</v>
+        <v>0.3758394510887229</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.617724420581055</v>
       </c>
       <c r="Q2">
-        <v>1.075536665107535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.182076566872212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.931482904018367</v>
+        <v>2.933155122196581</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.121512421219478</v>
+        <v>0.1101636272455266</v>
       </c>
       <c r="E3">
-        <v>0.224098083715738</v>
+        <v>0.1887337224703174</v>
       </c>
       <c r="F3">
-        <v>0.3594688103380363</v>
+        <v>0.3976174827518122</v>
       </c>
       <c r="G3">
-        <v>0.2753075346131766</v>
+        <v>0.2894132375814564</v>
       </c>
       <c r="H3">
-        <v>0.001094092301325678</v>
+        <v>0.0006598996275011815</v>
       </c>
       <c r="I3">
-        <v>0.01749358725951788</v>
+        <v>0.01219738905484391</v>
       </c>
       <c r="J3">
-        <v>0.2234043723563275</v>
+        <v>0.284675964460007</v>
       </c>
       <c r="K3">
-        <v>0.4616657260883521</v>
+        <v>0.3677659487937852</v>
       </c>
       <c r="L3">
-        <v>0.4136767406808275</v>
+        <v>0.1308004954162048</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1488389168206048</v>
       </c>
       <c r="N3">
-        <v>1.615840628617093</v>
+        <v>0.342570443290839</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.402185798690397</v>
       </c>
       <c r="Q3">
-        <v>1.001824366934656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.100102976311035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.669197288575276</v>
+        <v>2.669767200901902</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1215711684847811</v>
+        <v>0.1104296735577392</v>
       </c>
       <c r="E4">
-        <v>0.2151022092001043</v>
+        <v>0.1811056316434509</v>
       </c>
       <c r="F4">
-        <v>0.3533883140495888</v>
+        <v>0.3890721543974749</v>
       </c>
       <c r="G4">
-        <v>0.2592533812196578</v>
+        <v>0.2712855710358113</v>
       </c>
       <c r="H4">
-        <v>0.001741680825342345</v>
+        <v>0.001141562366841264</v>
       </c>
       <c r="I4">
-        <v>0.01938904786444784</v>
+        <v>0.01355386611698739</v>
       </c>
       <c r="J4">
-        <v>0.2190260227432432</v>
+        <v>0.2784894248537526</v>
       </c>
       <c r="K4">
-        <v>0.4587759134486795</v>
+        <v>0.3674077269719902</v>
       </c>
       <c r="L4">
-        <v>0.390384850345896</v>
+        <v>0.1282381383604712</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1527057626409558</v>
       </c>
       <c r="N4">
-        <v>1.472308274183121</v>
+        <v>0.3223652409441371</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.27069992909864</v>
       </c>
       <c r="Q4">
-        <v>0.9584124874296833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.05127485495737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.562140985435349</v>
+        <v>2.562233297586261</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.121647960984216</v>
+        <v>0.1105714561289375</v>
       </c>
       <c r="E5">
-        <v>0.2117496036157576</v>
+        <v>0.1782380660598726</v>
       </c>
       <c r="F5">
-        <v>0.3506432744658667</v>
+        <v>0.3853160689635757</v>
       </c>
       <c r="G5">
-        <v>0.2525175849587882</v>
+        <v>0.2637326709140666</v>
       </c>
       <c r="H5">
-        <v>0.00205428938472807</v>
+        <v>0.001380235073413116</v>
       </c>
       <c r="I5">
-        <v>0.02029606161443631</v>
+        <v>0.01424391637115718</v>
       </c>
       <c r="J5">
-        <v>0.2171580063110454</v>
+        <v>0.2758475136626259</v>
       </c>
       <c r="K5">
-        <v>0.4586717721490103</v>
+        <v>0.3680099461259658</v>
       </c>
       <c r="L5">
-        <v>0.3815917191659111</v>
+        <v>0.1275049343236532</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.15465756710012</v>
       </c>
       <c r="N5">
-        <v>1.416484350729576</v>
+        <v>0.3146822798190954</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.219377001120904</v>
       </c>
       <c r="Q5">
-        <v>0.9401337458490246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.030787608159144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.544354971911048</v>
+        <v>2.544363545732438</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.121705530750436</v>
+        <v>0.1106153109869581</v>
       </c>
       <c r="E6">
-        <v>0.2115509871425303</v>
+        <v>0.1780236751469531</v>
       </c>
       <c r="F6">
-        <v>0.3496635184799075</v>
+        <v>0.3841991687514152</v>
       </c>
       <c r="G6">
-        <v>0.2510202602389953</v>
+        <v>0.2621338885849624</v>
       </c>
       <c r="H6">
-        <v>0.002108695595183729</v>
+        <v>0.001422420055382345</v>
       </c>
       <c r="I6">
-        <v>0.02056322343378003</v>
+        <v>0.01449085385742155</v>
       </c>
       <c r="J6">
-        <v>0.2166455396894733</v>
+        <v>0.2752159611442835</v>
       </c>
       <c r="K6">
-        <v>0.4596712563943512</v>
+        <v>0.3687542143391518</v>
       </c>
       <c r="L6">
-        <v>0.3809437435861156</v>
+        <v>0.1275176444146027</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.155335522220323</v>
       </c>
       <c r="N6">
-        <v>1.410313601846781</v>
+        <v>0.314019241244452</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.213383488660924</v>
       </c>
       <c r="Q6">
-        <v>0.9358720018655902</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.026255026642374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.66775641601339</v>
+        <v>2.668310502406314</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1216940490254288</v>
+        <v>0.1104145139570534</v>
       </c>
       <c r="E7">
-        <v>0.2160357630038305</v>
+        <v>0.1816172274276155</v>
       </c>
       <c r="F7">
-        <v>0.3518956521262311</v>
+        <v>0.3869092764380326</v>
       </c>
       <c r="G7">
-        <v>0.2581088969789107</v>
+        <v>0.2731138971687841</v>
       </c>
       <c r="H7">
-        <v>0.001744660965958267</v>
+        <v>0.00114713673840372</v>
       </c>
       <c r="I7">
-        <v>0.01969496066308896</v>
+        <v>0.01390322969527791</v>
       </c>
       <c r="J7">
-        <v>0.2184355531312221</v>
+        <v>0.2733483994277677</v>
       </c>
       <c r="K7">
-        <v>0.461528372724139</v>
+        <v>0.369398066740775</v>
       </c>
       <c r="L7">
-        <v>0.3924856092953064</v>
+        <v>0.1286490059869099</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1537889910523234</v>
       </c>
       <c r="N7">
-        <v>1.480009182378581</v>
+        <v>0.3237408528845691</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.276105755940904</v>
       </c>
       <c r="Q7">
-        <v>0.9547494727334112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.044801160374433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.210796741196987</v>
+        <v>3.213526670666511</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.121682777429676</v>
+        <v>0.1097844382729498</v>
       </c>
       <c r="E8">
-        <v>0.2350966748591361</v>
+        <v>0.1973973563880413</v>
       </c>
       <c r="F8">
-        <v>0.3646537414919067</v>
+        <v>0.402960056752228</v>
       </c>
       <c r="G8">
-        <v>0.2914947050551504</v>
+        <v>0.3176438705873323</v>
       </c>
       <c r="H8">
-        <v>0.000577962601079729</v>
+        <v>0.0003016595087456664</v>
       </c>
       <c r="I8">
-        <v>0.01599271937494962</v>
+        <v>0.01130280051190891</v>
       </c>
       <c r="J8">
-        <v>0.2276402639407706</v>
+        <v>0.2757183146241715</v>
       </c>
       <c r="K8">
-        <v>0.4694179662098321</v>
+        <v>0.3722540082773982</v>
       </c>
       <c r="L8">
-        <v>0.4416468484108407</v>
+        <v>0.1351527647105684</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.146596812646699</v>
       </c>
       <c r="N8">
-        <v>1.78080260811106</v>
+        <v>0.3659374951298844</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.549766189194571</v>
       </c>
       <c r="Q8">
-        <v>1.045227125758316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.13917739885531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.271104053420629</v>
+        <v>4.277021595306564</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.121988886842324</v>
+        <v>0.10926610826656</v>
       </c>
       <c r="E9">
-        <v>0.2714697085892865</v>
+        <v>0.2285802682198224</v>
       </c>
       <c r="F9">
-        <v>0.3982926962134741</v>
+        <v>0.4444801462650645</v>
       </c>
       <c r="G9">
-        <v>0.3634362295879328</v>
+        <v>0.4007733117243362</v>
       </c>
       <c r="H9">
-        <v>7.540346847900725E-05</v>
+        <v>0.0001739488612750861</v>
       </c>
       <c r="I9">
-        <v>0.009968852173026121</v>
+        <v>0.007013338651913337</v>
       </c>
       <c r="J9">
-        <v>0.2497274739628921</v>
+        <v>0.2988992363094951</v>
       </c>
       <c r="K9">
-        <v>0.4887169087190628</v>
+        <v>0.3816428114273407</v>
       </c>
       <c r="L9">
-        <v>0.5353909105883616</v>
+        <v>0.1536368005520359</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.133646506313756</v>
       </c>
       <c r="N9">
-        <v>2.3610499355363</v>
+        <v>0.4481308278525375</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2.084044821468609</v>
       </c>
       <c r="Q9">
-        <v>1.244750945268663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.354061631794536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.04815569322534</v>
+        <v>5.055433621293389</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1238592850290132</v>
+        <v>0.1096553712225692</v>
       </c>
       <c r="E10">
-        <v>0.3059625117672056</v>
+        <v>0.2568051019521747</v>
       </c>
       <c r="F10">
-        <v>0.4186167391664242</v>
+        <v>0.4659840143077574</v>
       </c>
       <c r="G10">
-        <v>0.4131673166528032</v>
+        <v>0.4767977014412565</v>
       </c>
       <c r="H10">
-        <v>0.001129002040643368</v>
+        <v>0.00130514766540557</v>
       </c>
       <c r="I10">
-        <v>0.006910058283687626</v>
+        <v>0.005010070023843127</v>
       </c>
       <c r="J10">
-        <v>0.2647248722101381</v>
+        <v>0.2886586932722679</v>
       </c>
       <c r="K10">
-        <v>0.5199650971981669</v>
+        <v>0.4026282608468108</v>
       </c>
       <c r="L10">
-        <v>0.6210634759472384</v>
+        <v>0.1747612669103411</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1295605837665939</v>
       </c>
       <c r="N10">
-        <v>2.782007040399549</v>
+        <v>0.5212425834852041</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2.46206243983508</v>
       </c>
       <c r="Q10">
-        <v>1.382099358821876</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.484260126819947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.400553884540443</v>
+        <v>5.407907372641375</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1382252026776953</v>
+        <v>0.1180346927134224</v>
       </c>
       <c r="E11">
-        <v>0.3894886034582115</v>
+        <v>0.3211526230724076</v>
       </c>
       <c r="F11">
-        <v>0.3598704160749264</v>
+        <v>0.4042242068983839</v>
       </c>
       <c r="G11">
-        <v>0.3832463981801766</v>
+        <v>0.4907930866958452</v>
       </c>
       <c r="H11">
-        <v>0.01993067226482381</v>
+        <v>0.02002502649651916</v>
       </c>
       <c r="I11">
-        <v>0.006496539406496638</v>
+        <v>0.005070865835286931</v>
       </c>
       <c r="J11">
-        <v>0.244628778147657</v>
+        <v>0.2242486541983624</v>
       </c>
       <c r="K11">
-        <v>0.6334463894153401</v>
+        <v>0.4802308522158825</v>
       </c>
       <c r="L11">
-        <v>0.8062767351634648</v>
+        <v>0.2107594641670403</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1525998869809868</v>
       </c>
       <c r="N11">
-        <v>2.864754843350113</v>
+        <v>0.6698069977467043</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.478019733144833</v>
       </c>
       <c r="Q11">
-        <v>1.27683180927761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.358193414767896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.533670195830837</v>
+        <v>5.540920652502678</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1530041210895945</v>
+        <v>0.1274646043620109</v>
       </c>
       <c r="E12">
-        <v>0.4608190750687697</v>
+        <v>0.3763868587319834</v>
       </c>
       <c r="F12">
-        <v>0.3107152085253801</v>
+        <v>0.3545222976573328</v>
       </c>
       <c r="G12">
-        <v>0.3498173451454818</v>
+        <v>0.4762760606158309</v>
       </c>
       <c r="H12">
-        <v>0.0586366542775778</v>
+        <v>0.05867921923228892</v>
       </c>
       <c r="I12">
-        <v>0.006210390231873752</v>
+        <v>0.0049107332602496</v>
       </c>
       <c r="J12">
-        <v>0.2255187661139644</v>
+        <v>0.191031300378647</v>
       </c>
       <c r="K12">
-        <v>0.7296544897619057</v>
+        <v>0.5447674864402359</v>
       </c>
       <c r="L12">
-        <v>0.9598176131210323</v>
+        <v>0.2380996612917201</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.173933026750543</v>
       </c>
       <c r="N12">
-        <v>2.829183451056906</v>
+        <v>0.7925863219779075</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2.401334937808059</v>
       </c>
       <c r="Q12">
-        <v>1.166051203817858</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.24234433206999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.504434284001206</v>
+        <v>5.511527002214109</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1689201545004906</v>
+        <v>0.1387882297305012</v>
       </c>
       <c r="E13">
-        <v>0.5276351057778541</v>
+        <v>0.4291361843922559</v>
       </c>
       <c r="F13">
-        <v>0.2636211208183283</v>
+        <v>0.3098388787485575</v>
       </c>
       <c r="G13">
-        <v>0.3099329569666907</v>
+        <v>0.430127550420508</v>
       </c>
       <c r="H13">
-        <v>0.1142241939272708</v>
+        <v>0.1142485251242675</v>
       </c>
       <c r="I13">
-        <v>0.006378215542802046</v>
+        <v>0.005032290718548715</v>
       </c>
       <c r="J13">
-        <v>0.205070425207154</v>
+        <v>0.1810523263344663</v>
       </c>
       <c r="K13">
-        <v>0.8209522618118754</v>
+        <v>0.6029736366879135</v>
       </c>
       <c r="L13">
-        <v>1.099725116440453</v>
+        <v>0.2594253978803351</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1959466974305144</v>
       </c>
       <c r="N13">
-        <v>2.714187906974416</v>
+        <v>0.9047249751812103</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2.262654555865652</v>
       </c>
       <c r="Q13">
-        <v>1.038681852324231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.127676775101094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.410325702976479</v>
+        <v>5.417276204974598</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.180959734239849</v>
+        <v>0.1480211849124871</v>
       </c>
       <c r="E14">
-        <v>0.5735358734827187</v>
+        <v>0.465959652751593</v>
       </c>
       <c r="F14">
-        <v>0.2318775795985317</v>
+        <v>0.2804905619934246</v>
       </c>
       <c r="G14">
-        <v>0.2791892376406651</v>
+        <v>0.3849999398488819</v>
       </c>
       <c r="H14">
-        <v>0.1633836403408537</v>
+        <v>0.1634094771666099</v>
       </c>
       <c r="I14">
-        <v>0.006795756722477009</v>
+        <v>0.005355164153397318</v>
       </c>
       <c r="J14">
-        <v>0.1901602711886312</v>
+        <v>0.1827266227974533</v>
       </c>
       <c r="K14">
-        <v>0.884616881481918</v>
+        <v>0.6418025660241824</v>
       </c>
       <c r="L14">
-        <v>1.193788437703944</v>
+        <v>0.2717129998572432</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2122976878703469</v>
       </c>
       <c r="N14">
-        <v>2.600689516343124</v>
+        <v>0.9802537657321864</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>2.140082007148806</v>
       </c>
       <c r="Q14">
-        <v>0.9422402308090341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.046540564542283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.352775503265661</v>
+        <v>5.359668478489198</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1838229564043559</v>
+        <v>0.1504790323879988</v>
       </c>
       <c r="E15">
-        <v>0.5830013838462946</v>
+        <v>0.4738041846479248</v>
       </c>
       <c r="F15">
-        <v>0.2238924944703413</v>
+        <v>0.2734935721337379</v>
       </c>
       <c r="G15">
-        <v>0.2699398254031422</v>
+        <v>0.3681706338545467</v>
       </c>
       <c r="H15">
-        <v>0.1757884663131648</v>
+        <v>0.1758200395875775</v>
       </c>
       <c r="I15">
-        <v>0.007133217583073836</v>
+        <v>0.005652334901536271</v>
       </c>
       <c r="J15">
-        <v>0.186056952966112</v>
+        <v>0.1867916828681757</v>
       </c>
       <c r="K15">
-        <v>0.8991247861301872</v>
+        <v>0.6499698936565323</v>
       </c>
       <c r="L15">
-        <v>1.212417498360395</v>
+        <v>0.2733255679424147</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2165758645975089</v>
       </c>
       <c r="N15">
-        <v>2.55997012172071</v>
+        <v>0.995242377860535</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>2.099928231468994</v>
       </c>
       <c r="Q15">
-        <v>0.9140063176921842</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.024896677095256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.023209316184023</v>
+        <v>5.029836779022446</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.179196471054027</v>
+        <v>0.1490542485921083</v>
       </c>
       <c r="E16">
-        <v>0.5529093182838878</v>
+        <v>0.4517233259679543</v>
       </c>
       <c r="F16">
-        <v>0.2236092569287855</v>
+        <v>0.2769743104664499</v>
       </c>
       <c r="G16">
-        <v>0.2559130013491071</v>
+        <v>0.3203266543000041</v>
       </c>
       <c r="H16">
-        <v>0.1624427445756709</v>
+        <v>0.1625071726609661</v>
       </c>
       <c r="I16">
-        <v>0.0084633953799651</v>
+        <v>0.006601034012278184</v>
       </c>
       <c r="J16">
-        <v>0.1832414482250044</v>
+        <v>0.2206592093194928</v>
       </c>
       <c r="K16">
-        <v>0.86386666777328</v>
+        <v>0.6216658469295311</v>
       </c>
       <c r="L16">
-        <v>1.14384516205223</v>
+        <v>0.2546510109445208</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2130585679698882</v>
       </c>
       <c r="N16">
-        <v>2.409678043723829</v>
+        <v>0.9402640937880165</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.980294398549944</v>
       </c>
       <c r="Q16">
-        <v>0.8781528913903145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.012588775672924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.821092611635436</v>
+        <v>4.827519668632306</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1691083478466595</v>
+        <v>0.1424879071984506</v>
       </c>
       <c r="E17">
-        <v>0.5051124575035715</v>
+        <v>0.4143995809767773</v>
       </c>
       <c r="F17">
-        <v>0.2400856950272257</v>
+        <v>0.294713720496631</v>
       </c>
       <c r="G17">
-        <v>0.2614605628321982</v>
+        <v>0.3110585247369357</v>
       </c>
       <c r="H17">
-        <v>0.1243563297591663</v>
+        <v>0.124423619803224</v>
       </c>
       <c r="I17">
-        <v>0.009319449681307823</v>
+        <v>0.007206523233766582</v>
       </c>
       <c r="J17">
-        <v>0.1890293649970189</v>
+        <v>0.2428853538809221</v>
       </c>
       <c r="K17">
-        <v>0.8031768183497192</v>
+        <v>0.5807875610030067</v>
       </c>
       <c r="L17">
-        <v>1.040697568609488</v>
+        <v>0.2348956525736128</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2017772489342988</v>
       </c>
       <c r="N17">
-        <v>2.355019777348929</v>
+        <v>0.8570080608314754</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.952440934620967</v>
       </c>
       <c r="Q17">
-        <v>0.9018869621237684</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.043332892594719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.704994141656869</v>
+        <v>4.711361199509383</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1543666704025313</v>
+        <v>0.1320579095102801</v>
       </c>
       <c r="E18">
-        <v>0.4396003700761071</v>
+        <v>0.3627015811654459</v>
       </c>
       <c r="F18">
-        <v>0.2751206459367879</v>
+        <v>0.329964960771612</v>
       </c>
       <c r="G18">
-        <v>0.2856320877326084</v>
+        <v>0.3278098576793695</v>
       </c>
       <c r="H18">
-        <v>0.07144461942950642</v>
+        <v>0.07151477112607552</v>
       </c>
       <c r="I18">
-        <v>0.00946643366601041</v>
+        <v>0.007157822407882541</v>
       </c>
       <c r="J18">
-        <v>0.2033953148435756</v>
+        <v>0.2639415734022634</v>
       </c>
       <c r="K18">
-        <v>0.715054200010357</v>
+        <v>0.5240400027373724</v>
       </c>
       <c r="L18">
-        <v>0.9015048569250439</v>
+        <v>0.2118240044371618</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.18223876015794</v>
       </c>
       <c r="N18">
-        <v>2.368395077615389</v>
+        <v>0.745017615490994</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.996084454908214</v>
       </c>
       <c r="Q18">
-        <v>0.9831169043766295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.123725281345088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.665990428665395</v>
+        <v>4.672446532374522</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1397303396568574</v>
+        <v>0.1215736031485264</v>
       </c>
       <c r="E19">
-        <v>0.3735606473767845</v>
+        <v>0.3104914193208757</v>
       </c>
       <c r="F19">
-        <v>0.3229172630563824</v>
+        <v>0.3770029410329911</v>
       </c>
       <c r="G19">
-        <v>0.3224254975626053</v>
+        <v>0.3610252024992775</v>
       </c>
       <c r="H19">
-        <v>0.02630553838658756</v>
+        <v>0.02639768527898667</v>
       </c>
       <c r="I19">
-        <v>0.009565728191105016</v>
+        <v>0.007250817289766509</v>
       </c>
       <c r="J19">
-        <v>0.2231174624654955</v>
+        <v>0.2848302812914341</v>
       </c>
       <c r="K19">
-        <v>0.626589182271367</v>
+        <v>0.4682016810890914</v>
       </c>
       <c r="L19">
-        <v>0.7612340297729219</v>
+        <v>0.1910666895258117</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1612554206841565</v>
       </c>
       <c r="N19">
-        <v>2.450937608171955</v>
+        <v>0.6323764541021575</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>2.107987888615867</v>
       </c>
       <c r="Q19">
-        <v>1.102374198922149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.237636013126746</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.844199016908874</v>
+        <v>4.851194222981633</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1238730675737258</v>
+        <v>0.1101197583003604</v>
       </c>
       <c r="E20">
-        <v>0.300415810836526</v>
+        <v>0.2526766393792599</v>
       </c>
       <c r="F20">
-        <v>0.4082663533227588</v>
+        <v>0.4583873466523087</v>
       </c>
       <c r="G20">
-        <v>0.3963827344901318</v>
+        <v>0.4425247719943286</v>
       </c>
       <c r="H20">
-        <v>0.0007439648873273086</v>
+        <v>0.0009180800503250097</v>
       </c>
       <c r="I20">
-        <v>0.008498914573255689</v>
+        <v>0.006492987933211403</v>
       </c>
       <c r="J20">
-        <v>0.2587968616306426</v>
+        <v>0.305083910982475</v>
       </c>
       <c r="K20">
-        <v>0.5213043886122506</v>
+        <v>0.4026096064565863</v>
       </c>
       <c r="L20">
-        <v>0.6064123836842867</v>
+        <v>0.1710179678315065</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1327667309718414</v>
       </c>
       <c r="N20">
-        <v>2.697598198714047</v>
+        <v>0.5088530485057277</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>2.386963231314638</v>
       </c>
       <c r="Q20">
-        <v>1.333974510822799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.450249120197697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.440254284093044</v>
+        <v>5.447807195857536</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1234546269628751</v>
+        <v>0.1078324360684242</v>
       </c>
       <c r="E21">
-        <v>0.3159943067927458</v>
+        <v>0.2625699931035044</v>
       </c>
       <c r="F21">
-        <v>0.4387209655964668</v>
+        <v>0.4745843456036312</v>
       </c>
       <c r="G21">
-        <v>0.445937135919138</v>
+        <v>0.5716823632730126</v>
       </c>
       <c r="H21">
-        <v>0.001846805914365091</v>
+        <v>0.001974833285093625</v>
       </c>
       <c r="I21">
-        <v>0.006322999660238082</v>
+        <v>0.005043462652321473</v>
       </c>
       <c r="J21">
-        <v>0.276251110172538</v>
+        <v>0.2284994852023914</v>
       </c>
       <c r="K21">
-        <v>0.5308240461959741</v>
+        <v>0.4154777613366036</v>
       </c>
       <c r="L21">
-        <v>0.6482764260594251</v>
+        <v>0.1870420188386106</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1281841599974491</v>
       </c>
       <c r="N21">
-        <v>3.03832021709195</v>
+        <v>0.542127453031398</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>2.686272217689663</v>
       </c>
       <c r="Q21">
-        <v>1.475956514304357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.525000148732374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.829767607927693</v>
+        <v>5.837401239126905</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1236730598363991</v>
+        <v>0.1066880379910309</v>
       </c>
       <c r="E22">
-        <v>0.3283726087439263</v>
+        <v>0.2705840347572064</v>
       </c>
       <c r="F22">
-        <v>0.4573514568823072</v>
+        <v>0.4824759293568874</v>
       </c>
       <c r="G22">
-        <v>0.4774140416593298</v>
+        <v>0.6642888262676934</v>
       </c>
       <c r="H22">
-        <v>0.002917358864930303</v>
+        <v>0.002949643622666587</v>
       </c>
       <c r="I22">
-        <v>0.004845807395774671</v>
+        <v>0.003903904613465237</v>
       </c>
       <c r="J22">
-        <v>0.2872685361529221</v>
+        <v>0.1825151106077172</v>
       </c>
       <c r="K22">
-        <v>0.5391834613448765</v>
+        <v>0.4259077389739048</v>
       </c>
       <c r="L22">
-        <v>0.6803315348623187</v>
+        <v>0.1987051103805904</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1259506090568223</v>
       </c>
       <c r="N22">
-        <v>3.243703235759995</v>
+        <v>0.5674715006044266</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>2.862781529306119</v>
       </c>
       <c r="Q22">
-        <v>1.565995988525401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.56561080106971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.621876149343734</v>
+        <v>5.62952578553967</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1233672620012882</v>
+        <v>0.1073709946382841</v>
       </c>
       <c r="E23">
-        <v>0.3205178898048331</v>
+        <v>0.2658135518697406</v>
       </c>
       <c r="F23">
-        <v>0.448957544973851</v>
+        <v>0.4816661496366521</v>
       </c>
       <c r="G23">
-        <v>0.4617428956470206</v>
+        <v>0.6067537359363797</v>
       </c>
       <c r="H23">
-        <v>0.002313662018816831</v>
+        <v>0.002410927071230473</v>
       </c>
       <c r="I23">
-        <v>0.005279770071267897</v>
+        <v>0.004098076891110303</v>
       </c>
       <c r="J23">
-        <v>0.281981607899553</v>
+        <v>0.2151005262440009</v>
       </c>
       <c r="K23">
-        <v>0.5309272602041233</v>
+        <v>0.416800451511719</v>
       </c>
       <c r="L23">
-        <v>0.6604391171738797</v>
+        <v>0.1910634568717242</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1258753265341568</v>
       </c>
       <c r="N23">
-        <v>3.123709703222175</v>
+        <v>0.5523056088886165</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>2.762335928490927</v>
       </c>
       <c r="Q23">
-        <v>1.521574556833912</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.555374842615663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.834542849524041</v>
+        <v>4.841557679363348</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1226356727954609</v>
+        <v>0.1093315185593262</v>
       </c>
       <c r="E24">
-        <v>0.2929288853770089</v>
+        <v>0.2468323823895133</v>
       </c>
       <c r="F24">
-        <v>0.4166298422882804</v>
+        <v>0.4663332311617907</v>
       </c>
       <c r="G24">
-        <v>0.4022524741002513</v>
+        <v>0.4473053508138207</v>
       </c>
       <c r="H24">
-        <v>0.0006453789971694879</v>
+        <v>0.0008262750541889186</v>
       </c>
       <c r="I24">
-        <v>0.007967668155181684</v>
+        <v>0.005855083498202518</v>
       </c>
       <c r="J24">
-        <v>0.2619627653192822</v>
+        <v>0.3087996976619962</v>
       </c>
       <c r="K24">
-        <v>0.5080370724758296</v>
+        <v>0.3937944939829663</v>
       </c>
       <c r="L24">
-        <v>0.5898451233177298</v>
+        <v>0.1676447695595193</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1295423342636646</v>
       </c>
       <c r="N24">
-        <v>2.687442754860257</v>
+        <v>0.4956200252740217</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>2.383452882357346</v>
       </c>
       <c r="Q24">
-        <v>1.353038092968347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.468205650052141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.984651933302757</v>
+        <v>3.989842737626077</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1221006039061265</v>
+        <v>0.1095908975257203</v>
       </c>
       <c r="E25">
-        <v>0.2633854318777651</v>
+        <v>0.2216686621320001</v>
       </c>
       <c r="F25">
-        <v>0.3859121722582302</v>
+        <v>0.4313410155155708</v>
       </c>
       <c r="G25">
-        <v>0.3415343034173191</v>
+        <v>0.3717708032353642</v>
       </c>
       <c r="H25">
-        <v>6.425035836699067E-09</v>
+        <v>2.687536031997784E-05</v>
       </c>
       <c r="I25">
-        <v>0.01189050692533922</v>
+        <v>0.008586043709929214</v>
       </c>
       <c r="J25">
-        <v>0.2423977616175819</v>
+        <v>0.2979291473238419</v>
       </c>
       <c r="K25">
-        <v>0.4878197842637846</v>
+        <v>0.3814528195675315</v>
       </c>
       <c r="L25">
-        <v>0.5140142616396588</v>
+        <v>0.1489565518414864</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1381510530391736</v>
       </c>
       <c r="N25">
-        <v>2.218924327929642</v>
+        <v>0.4291754973649233</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.952611803428482</v>
       </c>
       <c r="Q25">
-        <v>1.182775531091238</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.293189138486298</v>
       </c>
     </row>
   </sheetData>
